--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>PJ名</t>
   </si>
@@ -41,14 +41,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -58,21 +58,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -82,45 +82,35 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>リクエスト名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -133,57 +123,53 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -196,22 +182,22 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>A101</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン：初期表示</t>
@@ -221,21 +207,21 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン：ログイン処理</t>
     <rPh sb="9" eb="11">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログアウト：ログアウト処理</t>
     <rPh sb="11" eb="13">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TOPメニュー：初期表示</t>
@@ -245,23 +231,19 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト管理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>A102</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：初期表示</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>URL一覧</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -276,7 +258,7 @@
       </rPr>
       <t>RL</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：初期表示画面へ戻る</t>
@@ -292,76 +274,42 @@
     <rPh sb="16" eb="17">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：確認処理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：登録処理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>1. URL一覧</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一覧</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：登録完了表示</t>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/project/confirmRegistration</t>
@@ -377,24 +325,143 @@
   </si>
   <si>
     <t>/app/login</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/logout</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/project/register</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/search</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/list</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>1. URL一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>URL一覧</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>/app/project/detail</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト検索・詳細画面追加</t>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：検索画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：検索結果一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：詳細画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -407,12 +474,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -655,6 +716,12 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1103,25 +1170,43 @@
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,124 +1215,106 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1255,12 +1322,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,7 +1335,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,47 +1354,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1335,39 +1402,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1382,19 +1449,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1424,7 +1491,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,13 +1533,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,6 +1728,24 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1664,15 +1767,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1682,31 +1776,31 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,24 +1829,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1839,7 +1915,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -2571,7 +2647,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2687,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,12 +2699,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="81">
-        <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43630</v>
-      </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="I25" s="82">
+        <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
+        <v>43804</v>
+      </c>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -3199,9 +3277,9 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3224,57 +3302,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="126" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="150" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="109">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="115">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="111"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="117"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3282,53 +3360,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="122" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="128" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="109" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="115">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="111"/>
+        <v>43804</v>
+      </c>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="117"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3336,45 +3414,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="111"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="117"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3409,1030 +3487,1044 @@
     </row>
     <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="112" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="112" t="s">
+      <c r="H7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="112" t="s">
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="113"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="119"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="101">
+        <v>1</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103">
+        <v>43630</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
-        <v>43630</v>
-      </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100" t="s">
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="105"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="90"/>
+      <c r="A9" s="74">
+        <v>2</v>
+      </c>
+      <c r="B9" s="96">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="85">
+        <v>43804</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="88"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="90"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="90"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="90"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="90"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="90"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="90"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="91"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="91"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="91"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="90"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="91"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="90"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="91"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="91"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="91"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="91"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="91"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="91"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="90"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="91"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="91"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="90"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="91"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="90"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="91"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="90"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="91"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="90"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="91"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="90"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="91"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="91"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -4619,7 +4711,7 @@
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4774,163 +4866,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="str">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="148" t="str">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="144" t="str">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="144" t="str">
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="151" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+        <v>43804</v>
+      </c>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119" t="str">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -4990,7 +5082,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -5051,7 +5143,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="75" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -6411,7 +6503,7 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6424,9 +6516,9 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -6438,166 +6530,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="str">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="176" t="str">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="176" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="185" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="116" t="s">
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="187"/>
+      <c r="AD1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="144" t="str">
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="151">
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
+      <c r="AJ1" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="153"/>
+      <c r="AK1" s="158"/>
+      <c r="AL1" s="159"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="str">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="116" t="s">
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="144" t="str">
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="151" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="157">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="153"/>
+        <v>43804</v>
+      </c>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="159"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119" t="str">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="144" t="str">
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="151" t="str">
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
+      <c r="AJ3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="153"/>
+      <c r="AK3" s="158"/>
+      <c r="AL3" s="159"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -6650,7 +6742,7 @@
     <row r="5" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="75" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -6700,26 +6792,26 @@
     <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="166"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="175"/>
       <c r="L7" s="77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="78"/>
@@ -6751,642 +6843,644 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="161"/>
+      <c r="N8" s="162" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="154" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="162"/>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="162"/>
-      <c r="AJ8" s="162"/>
-      <c r="AK8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="164"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="187"/>
-      <c r="N9" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="162"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="162" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="161"/>
+      <c r="N9" s="162" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="164"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
+        <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="187"/>
-      <c r="N10" s="185" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="162"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="161"/>
+      <c r="N10" s="162" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="185" t="s">
+      <c r="D11" s="172"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="161"/>
+      <c r="N11" s="162" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="164"/>
+    </row>
+    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="81">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="161"/>
+      <c r="N12" s="162" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="164"/>
+    </row>
+    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="81">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="160" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="161"/>
+      <c r="N13" s="162" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="163"/>
+      <c r="AA13" s="163"/>
+      <c r="AB13" s="163"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="163"/>
+      <c r="AG13" s="163"/>
+      <c r="AH13" s="163"/>
+      <c r="AI13" s="163"/>
+      <c r="AJ13" s="163"/>
+      <c r="AK13" s="164"/>
+    </row>
+    <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="81">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="160" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="161"/>
+      <c r="N14" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="163"/>
+      <c r="AK14" s="164"/>
+    </row>
+    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="81">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="160" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="161"/>
+      <c r="N15" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="187"/>
-      <c r="N11" s="185" t="s">
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="163"/>
+      <c r="AJ15" s="163"/>
+      <c r="AK15" s="164"/>
+    </row>
+    <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="81">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="160" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="161"/>
+      <c r="N16" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="161" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="163"/>
-    </row>
-    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="74">
-        <v>5</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="187"/>
-      <c r="N12" s="185" t="s">
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="163"/>
+      <c r="AJ16" s="163"/>
+      <c r="AK16" s="164"/>
+    </row>
+    <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="81">
+        <f t="shared" ref="C17:C18" si="1">C16+1</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="161"/>
+      <c r="N17" s="162" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="160"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="163"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="163"/>
+      <c r="AG17" s="163"/>
+      <c r="AH17" s="163"/>
+      <c r="AI17" s="163"/>
+      <c r="AJ17" s="163"/>
+      <c r="AK17" s="164"/>
+    </row>
+    <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="81">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="161"/>
+      <c r="N18" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="161" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="163"/>
-    </row>
-    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="74">
-        <v>6</v>
-      </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="187"/>
-      <c r="N13" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="163"/>
-    </row>
-    <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="74">
-        <v>7</v>
-      </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="187"/>
-      <c r="N14" s="185" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="186"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="163"/>
-    </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="74">
-        <v>8</v>
-      </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="185" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="187"/>
-      <c r="N15" s="185" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="163"/>
-    </row>
-    <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="74">
-        <v>9</v>
-      </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="187"/>
-      <c r="N16" s="185" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="163"/>
-    </row>
-    <row r="17" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-    </row>
-    <row r="18" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-    </row>
-    <row r="19" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-    </row>
-    <row r="20" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-    </row>
-    <row r="21" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="163"/>
+      <c r="AH18" s="163"/>
+      <c r="AI18" s="163"/>
+      <c r="AJ18" s="163"/>
+      <c r="AK18" s="164"/>
+    </row>
+    <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="81">
+        <f>C18+1</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="161"/>
+      <c r="N19" s="162" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163"/>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="163"/>
+      <c r="AJ19" s="163"/>
+      <c r="AK19" s="164"/>
+    </row>
+    <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+    </row>
+    <row r="21" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
     </row>
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
@@ -7486,7 +7580,7 @@
     </row>
     <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -7580,60 +7674,213 @@
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
     </row>
+    <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+    </row>
+    <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+    </row>
+    <row r="28" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="D12:F16"/>
-    <mergeCell ref="G12:K16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
+  <mergeCells count="59">
     <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="N8:X8"/>
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="N10:X10"/>
     <mergeCell ref="N11:X11"/>
     <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="N12:X12"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:X15"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B432710-5A9F-4AFE-9A77-02F82B8EB161}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="15" windowWidth="21225" windowHeight="12750" tabRatio="822"/>
+    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>PJ名</t>
   </si>
@@ -453,11 +462,98 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>/app/project/update</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/confirmUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/completionUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：確認処理</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：登録処理</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：登録完了表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -855,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1167,6 +1263,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1303,7 +1412,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1536,6 +1645,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1545,12 +1663,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1728,6 +1840,27 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1746,6 +1879,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1767,6 +1903,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1774,33 +1937,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1995,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -1875,10 +2011,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1886,6 +2022,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1908,7 +2047,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1923,7 +2068,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2007,7 +2158,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2107,7 +2264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2637,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2701,7 +2864,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="82">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
-        <v>43804</v>
+        <v>43895</v>
       </c>
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
@@ -3286,7 +3449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3302,57 +3465,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="122" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="151" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="115">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="116">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="118"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3360,53 +3523,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="122" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="128" t="str">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="129" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="115">
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="116">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43804</v>
-      </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3414,45 +3577,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="153" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="118"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3489,123 +3652,123 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="118" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="118" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="118" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="118" t="s">
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="119"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="120"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103">
+      <c r="C8" s="103"/>
+      <c r="D8" s="104">
         <v>43630</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109" t="s">
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112" t="s">
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="109" t="s">
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="112"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="99">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="85">
         <v>43804</v>
       </c>
       <c r="E9" s="86"/>
       <c r="F9" s="87"/>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="101" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="88"/>
       <c r="I9" s="84"/>
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="97" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="90"/>
@@ -3614,7 +3777,7 @@
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
       <c r="P9" s="91"/>
-      <c r="Q9" s="100" t="s">
+      <c r="Q9" s="98" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="93"/>
@@ -3639,23 +3802,35 @@
       <c r="AI9" s="91"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="74">
+        <v>3</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>77</v>
+      </c>
       <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
+      <c r="D10" s="85">
+        <v>43895</v>
+      </c>
       <c r="E10" s="86"/>
       <c r="F10" s="87"/>
-      <c r="G10" s="83"/>
+      <c r="G10" s="96" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="88"/>
       <c r="I10" s="84"/>
-      <c r="J10" s="89"/>
+      <c r="J10" s="97" t="s">
+        <v>62</v>
+      </c>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
       <c r="N10" s="90"/>
       <c r="O10" s="90"/>
       <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
+      <c r="Q10" s="98" t="s">
+        <v>78</v>
+      </c>
       <c r="R10" s="93"/>
       <c r="S10" s="93"/>
       <c r="T10" s="93"/>
@@ -3670,7 +3845,9 @@
       <c r="AC10" s="93"/>
       <c r="AD10" s="93"/>
       <c r="AE10" s="94"/>
-      <c r="AF10" s="89"/>
+      <c r="AF10" s="97" t="s">
+        <v>25</v>
+      </c>
       <c r="AG10" s="90"/>
       <c r="AH10" s="90"/>
       <c r="AI10" s="91"/>
@@ -4720,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4866,163 +5043,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="154" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="155" t="s">
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="157">
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="155" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="157">
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43804</v>
-      </c>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="159"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="157" t="str">
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="159"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6512,7 +6689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6530,166 +6707,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125" t="str">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="185" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="186"/>
+      <c r="U1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="122" t="s">
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="150" t="str">
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="157">
+      <c r="AG1" s="152"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="158"/>
-      <c r="AL1" s="159"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="160"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125" t="str">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="122" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="150" t="str">
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="157">
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
+      <c r="AJ2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43804</v>
-      </c>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="159"/>
+        <v>43895</v>
+      </c>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="160"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125" t="str">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="192"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="150" t="str">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="204"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="157" t="str">
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
+      <c r="AJ3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="158"/>
-      <c r="AL3" s="159"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -6794,18 +6971,18 @@
       <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="173" t="s">
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="175"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
       <c r="L7" s="77" t="s">
         <v>43</v>
       </c>
@@ -6843,599 +7020,608 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="166" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="162" t="s">
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="161"/>
-      <c r="N8" s="162" t="s">
+      <c r="M8" s="171"/>
+      <c r="N8" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="99" t="s">
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="163"/>
-      <c r="AK8" s="164"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="174"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="162" t="s">
+      <c r="D9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="161"/>
-      <c r="N9" s="162" t="s">
+      <c r="M9" s="171"/>
+      <c r="N9" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="99" t="s">
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
+      <c r="U9" s="170"/>
+      <c r="V9" s="170"/>
+      <c r="W9" s="170"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="163"/>
-      <c r="AJ9" s="163"/>
-      <c r="AK9" s="164"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="174"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
         <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="162" t="s">
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="161"/>
-      <c r="N10" s="162" t="s">
+      <c r="M10" s="171"/>
+      <c r="N10" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="99" t="s">
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
+      <c r="U10" s="170"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="163"/>
-      <c r="AK10" s="164"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="174"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="172"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="162" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162" t="s">
+      <c r="M11" s="171"/>
+      <c r="N11" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="99" t="s">
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
+      <c r="U11" s="170"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="163"/>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="163"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="163"/>
-      <c r="AI11" s="163"/>
-      <c r="AJ11" s="163"/>
-      <c r="AK11" s="164"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165" t="s">
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="160" t="s">
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="161"/>
-      <c r="N12" s="162" t="s">
+      <c r="M12" s="171"/>
+      <c r="N12" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="99" t="s">
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="163"/>
-      <c r="AI12" s="163"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="164"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="174"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="160" t="s">
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="161"/>
-      <c r="N13" s="162" t="s">
+      <c r="M13" s="171"/>
+      <c r="N13" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="99" t="s">
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="170"/>
+      <c r="V13" s="170"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="163"/>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="163"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="163"/>
-      <c r="AI13" s="163"/>
-      <c r="AJ13" s="163"/>
-      <c r="AK13" s="164"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="174"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="81">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="160" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="161"/>
-      <c r="N14" s="162" t="s">
+      <c r="M14" s="171"/>
+      <c r="N14" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="99" t="s">
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
+      <c r="U14" s="170"/>
+      <c r="V14" s="170"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="163"/>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="163"/>
-      <c r="AF14" s="163"/>
-      <c r="AG14" s="163"/>
-      <c r="AH14" s="163"/>
-      <c r="AI14" s="163"/>
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="164"/>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="173"/>
+      <c r="AK14" s="174"/>
     </row>
     <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="81">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="160" t="s">
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="161"/>
-      <c r="N15" s="162" t="s">
+      <c r="M15" s="171"/>
+      <c r="N15" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="99" t="s">
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="170"/>
+      <c r="V15" s="170"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="171"/>
+      <c r="Y15" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="163"/>
-      <c r="AJ15" s="163"/>
-      <c r="AK15" s="164"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="81">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="160" t="s">
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="161"/>
-      <c r="N16" s="162" t="s">
+      <c r="M16" s="171"/>
+      <c r="N16" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="99" t="s">
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="164"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="174"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="81">
-        <f t="shared" ref="C17:C18" si="1">C16+1</f>
+        <f t="shared" ref="C17:C23" si="1">C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="160" t="s">
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="161"/>
-      <c r="N17" s="162" t="s">
+      <c r="M17" s="171"/>
+      <c r="N17" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="99" t="s">
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="170"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="170"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="170"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="163"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="163"/>
-      <c r="AJ17" s="163"/>
-      <c r="AK17" s="164"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="174"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="81">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="160" t="s">
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="161"/>
-      <c r="N18" s="162" t="s">
+      <c r="M18" s="171"/>
+      <c r="N18" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="99" t="s">
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="170"/>
+      <c r="U18" s="170"/>
+      <c r="V18" s="170"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="163"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="163"/>
-      <c r="AJ18" s="163"/>
-      <c r="AK18" s="164"/>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="174"/>
     </row>
     <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="81">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="160" t="s">
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="161"/>
-      <c r="N19" s="162" t="s">
+      <c r="M19" s="171"/>
+      <c r="N19" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="99" t="s">
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="170"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="163"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="163"/>
-      <c r="AI19" s="163"/>
-      <c r="AJ19" s="163"/>
-      <c r="AK19" s="164"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="174"/>
     </row>
     <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
+      <c r="C20" s="81">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="165"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="165"/>
+      <c r="AJ20" s="165"/>
+      <c r="AK20" s="165"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
@@ -7443,41 +7629,50 @@
     <row r="21" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
+      <c r="C21" s="81">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="164" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="165"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="165"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="165"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
@@ -7485,41 +7680,50 @@
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
+      <c r="C22" s="81">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="164" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="165"/>
+      <c r="AJ22" s="165"/>
+      <c r="AK22" s="165"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7533,41 +7737,50 @@
     <row r="23" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
+      <c r="C23" s="81">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="164" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="165"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="165"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="165"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7819,13 +8032,12 @@
       <c r="AT28" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="75">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
     <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="N8:X8"/>
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="N10:X10"/>
@@ -7835,11 +8047,7 @@
     <mergeCell ref="Y9:AK9"/>
     <mergeCell ref="Y11:AK11"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="N13:X13"/>
     <mergeCell ref="O1:T3"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -7855,7 +8063,7 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="N14:X14"/>
     <mergeCell ref="N16:X16"/>
     <mergeCell ref="D8:F11"/>
@@ -7863,6 +8071,11 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:X18"/>
     <mergeCell ref="Y18:AK18"/>
@@ -7879,6 +8092,22 @@
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:X15"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B432710-5A9F-4AFE-9A77-02F82B8EB161}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF306F5-9A23-4AD9-9E90-CE6C50858CE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>PJ名</t>
   </si>
@@ -546,6 +546,46 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/backUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：入力画面へ戻る</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/moveUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：更新画面表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1412,7 +1452,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1603,243 +1643,369 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1848,123 +2014,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2862,12 +2911,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="82">
+      <c r="I25" s="85">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
         <v>43895</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -3465,57 +3514,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="142" t="s">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="123" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="121" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="116">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3523,53 +3572,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="123" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="129" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="116">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3577,45 +3626,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="154" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3652,1062 +3701,1218 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="119" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="119" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="119" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="120"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="140">
         <v>1</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104">
+      <c r="C8" s="141"/>
+      <c r="D8" s="142">
         <v>43630</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110" t="s">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="110" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="112"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="85">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127">
         <v>43804</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="101" t="s">
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="97" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="98" t="s">
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="89" t="s">
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="91"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85">
+      <c r="C10" s="132"/>
+      <c r="D10" s="127">
         <v>43895</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="96" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="97" t="s">
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="98" t="s">
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="97" t="s">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="91"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="91"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="91"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="91"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="91"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="91"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="91"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="91"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="91"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="91"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="91"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="91"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="91"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="94"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="91"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="91"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="91"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="91"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="91"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="91"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="94"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="91"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
-      <c r="AC32" s="93"/>
-      <c r="AD32" s="93"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="91"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="91"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4731,162 +4936,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -5043,53 +5092,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="155" t="str">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="156" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="151" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="153"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
       <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
@@ -5101,48 +5150,48 @@
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="156" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="151" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="153"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
       <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
@@ -5154,46 +5203,46 @@
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="151" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="153"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
       <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -6662,14 +6711,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6679,6 +6720,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -6693,7 +6742,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT28"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6707,56 +6756,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="196" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="123" t="s">
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="151" t="str">
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="152"/>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
@@ -6765,51 +6814,51 @@
       <c r="AL1" s="160"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="123" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="151" t="str">
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
@@ -6818,49 +6867,49 @@
       <c r="AL2" s="160"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="151" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -6971,18 +7020,18 @@
       <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="77" t="s">
         <v>43</v>
       </c>
@@ -7020,36 +7069,36 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="177" t="s">
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="172" t="s">
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="171"/>
-      <c r="N8" s="172" t="s">
+      <c r="M8" s="177"/>
+      <c r="N8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="97" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="133" t="s">
         <v>32</v>
       </c>
       <c r="Z8" s="173"/>
@@ -7070,32 +7119,32 @@
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="172" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="171"/>
-      <c r="N9" s="172" t="s">
+      <c r="M9" s="177"/>
+      <c r="N9" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="97" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="133" t="s">
         <v>33</v>
       </c>
       <c r="Z9" s="173"/>
@@ -7116,32 +7165,32 @@
         <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="172" t="s">
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172" t="s">
+      <c r="M10" s="177"/>
+      <c r="N10" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="97" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="133" t="s">
         <v>34</v>
       </c>
       <c r="Z10" s="173"/>
@@ -7162,32 +7211,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="172" t="s">
+      <c r="D11" s="196"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="171"/>
-      <c r="N11" s="172" t="s">
+      <c r="M11" s="177"/>
+      <c r="N11" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="97" t="s">
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="133" t="s">
         <v>35</v>
       </c>
       <c r="Z11" s="173"/>
@@ -7208,36 +7257,36 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="175" t="s">
+      <c r="D12" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175" t="s">
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="170" t="s">
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="171"/>
-      <c r="N12" s="172" t="s">
+      <c r="M12" s="177"/>
+      <c r="N12" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="97" t="s">
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="133" t="s">
         <v>38</v>
       </c>
       <c r="Z12" s="173"/>
@@ -7258,32 +7307,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="170" t="s">
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="171"/>
-      <c r="N13" s="172" t="s">
+      <c r="M13" s="177"/>
+      <c r="N13" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="97" t="s">
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="133" t="s">
         <v>41</v>
       </c>
       <c r="Z13" s="173"/>
@@ -7304,32 +7353,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="170" t="s">
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="171"/>
-      <c r="N14" s="172" t="s">
+      <c r="M14" s="177"/>
+      <c r="N14" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="171"/>
-      <c r="Y14" s="97" t="s">
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="133" t="s">
         <v>42</v>
       </c>
       <c r="Z14" s="173"/>
@@ -7350,32 +7399,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="170" t="s">
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="171"/>
-      <c r="N15" s="172" t="s">
+      <c r="M15" s="177"/>
+      <c r="N15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="171"/>
-      <c r="Y15" s="97" t="s">
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="133" t="s">
         <v>48</v>
       </c>
       <c r="Z15" s="173"/>
@@ -7396,32 +7445,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="170" t="s">
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="171"/>
-      <c r="N16" s="172" t="s">
+      <c r="M16" s="177"/>
+      <c r="N16" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="171"/>
-      <c r="Y16" s="97" t="s">
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="133" t="s">
         <v>40</v>
       </c>
       <c r="Z16" s="173"/>
@@ -7439,35 +7488,35 @@
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="81">
-        <f t="shared" ref="C17:C23" si="1">C16+1</f>
+        <f t="shared" ref="C17:C26" si="1">C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="170" t="s">
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="171"/>
-      <c r="N17" s="172" t="s">
+      <c r="M17" s="177"/>
+      <c r="N17" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="170"/>
-      <c r="W17" s="170"/>
-      <c r="X17" s="171"/>
-      <c r="Y17" s="97" t="s">
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="133" t="s">
         <v>67</v>
       </c>
       <c r="Z17" s="173"/>
@@ -7488,32 +7537,32 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="170" t="s">
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="171"/>
-      <c r="N18" s="172" t="s">
+      <c r="M18" s="177"/>
+      <c r="N18" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="97" t="s">
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="133" t="s">
         <v>68</v>
       </c>
       <c r="Z18" s="173"/>
@@ -7534,32 +7583,32 @@
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="170" t="s">
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="171"/>
-      <c r="N19" s="172" t="s">
+      <c r="M19" s="177"/>
+      <c r="N19" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="170"/>
-      <c r="X19" s="171"/>
-      <c r="Y19" s="97" t="s">
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="133" t="s">
         <v>69</v>
       </c>
       <c r="Z19" s="173"/>
@@ -7582,46 +7631,46 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="164" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166" t="s">
+      <c r="M20" s="200"/>
+      <c r="N20" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="166" t="s">
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="200"/>
+      <c r="X20" s="200"/>
+      <c r="Y20" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
+      <c r="AI20" s="200"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="200"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
@@ -7633,46 +7682,46 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="164" t="s">
+      <c r="D21" s="201"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166" t="s">
+      <c r="M21" s="200"/>
+      <c r="N21" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="166" t="s">
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
+      <c r="V21" s="200"/>
+      <c r="W21" s="200"/>
+      <c r="X21" s="200"/>
+      <c r="Y21" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
+      <c r="Z21" s="200"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
+      <c r="AD21" s="200"/>
+      <c r="AE21" s="200"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="200"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="200"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
@@ -7684,46 +7733,46 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="164" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166" t="s">
+      <c r="M22" s="200"/>
+      <c r="N22" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="166" t="s">
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="V22" s="200"/>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200"/>
+      <c r="Y22" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
+      <c r="Z22" s="200"/>
+      <c r="AA22" s="200"/>
+      <c r="AB22" s="200"/>
+      <c r="AC22" s="200"/>
+      <c r="AD22" s="200"/>
+      <c r="AE22" s="200"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="200"/>
+      <c r="AI22" s="200"/>
+      <c r="AJ22" s="200"/>
+      <c r="AK22" s="200"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7741,46 +7790,46 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="164" t="s">
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166" t="s">
+      <c r="M23" s="200"/>
+      <c r="N23" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="166" t="s">
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="200"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
+      <c r="Z23" s="200"/>
+      <c r="AA23" s="200"/>
+      <c r="AB23" s="200"/>
+      <c r="AC23" s="200"/>
+      <c r="AD23" s="200"/>
+      <c r="AE23" s="200"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="200"/>
+      <c r="AI23" s="200"/>
+      <c r="AJ23" s="200"/>
+      <c r="AK23" s="200"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7793,42 +7842,51 @@
     </row>
     <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="81">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="200"/>
+      <c r="N24" s="204" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="204" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="200"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="200"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7842,41 +7900,50 @@
     <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
+      <c r="C25" s="81">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="200"/>
+      <c r="N25" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="200"/>
+      <c r="AC25" s="200"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="200"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="200"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="200"/>
+      <c r="AK25" s="200"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7890,41 +7957,50 @@
     <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
+      <c r="C26" s="81">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="200"/>
+      <c r="N26" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200"/>
+      <c r="AC26" s="200"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="200"/>
+      <c r="AJ26" s="200"/>
+      <c r="AK26" s="200"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
@@ -7937,7 +8013,7 @@
     </row>
     <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -8031,8 +8107,220 @@
       <c r="AS28" s="15"/>
       <c r="AT28" s="15"/>
     </row>
+    <row r="29" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+    </row>
+    <row r="30" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+    </row>
+    <row r="31" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="84">
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF1:AI1"/>
@@ -8049,65 +8337,6 @@
     <mergeCell ref="N12:X12"/>
     <mergeCell ref="N13:X13"/>
     <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="Y16:AK16"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="Y15:AK15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G20:K22"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF306F5-9A23-4AD9-9E90-CE6C50858CE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="15" windowWidth="21225" windowHeight="12750" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -21,12 +22,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>PJ名</t>
   </si>
@@ -41,14 +50,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -58,21 +67,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -82,45 +91,35 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
       <t>キノウメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>リクエスト名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -133,57 +132,53 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>PJ名</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>サンプルシステム</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="28"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -196,22 +191,22 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>A101</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン：初期表示</t>
@@ -221,21 +216,21 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログイン：ログイン処理</t>
     <rPh sb="9" eb="11">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ログアウト：ログアウト処理</t>
     <rPh sb="11" eb="13">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TOPメニュー：初期表示</t>
@@ -245,23 +240,19 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト管理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>A102</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：初期表示</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>URL一覧</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -276,7 +267,7 @@
       </rPr>
       <t>RL</t>
     </r>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：初期表示画面へ戻る</t>
@@ -292,76 +283,42 @@
     <rPh sb="16" eb="17">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：確認処理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：登録処理</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>1. URL一覧</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一覧</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト登録：登録完了表示</t>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/project/confirmRegistration</t>
@@ -377,24 +334,270 @@
   </si>
   <si>
     <t>/app/login</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/logout</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/app/project/register</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/search</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/list</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>1. URL一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>URL一覧</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>/app/project/detail</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト検索・詳細画面追加</t>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：検索画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：検索結果一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：詳細画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/update</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/confirmUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/completionUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：確認処理</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：登録処理</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：登録完了表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新画面追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/backUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：入力画面へ戻る</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/app/project/moveUpdate</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト更新：更新画面表示</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -407,12 +610,6 @@
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -657,6 +854,12 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -788,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1100,28 +1303,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,124 +1364,106 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1255,12 +1471,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,7 +1484,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,47 +1503,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1335,39 +1551,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1382,19 +1598,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1424,224 +1640,332 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1664,95 +1988,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1783,7 +2044,7 @@
     <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="パーセント 2" xfId="47"/>
+    <cellStyle name="パーセント 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="ハイパーリンク" xfId="46" builtinId="8"/>
     <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
@@ -1799,10 +2060,10 @@
     <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="標準 2 2" xfId="45"/>
-    <cellStyle name="標準_画面標準" xfId="41"/>
-    <cellStyle name="標準_画面標準定義" xfId="42"/>
+    <cellStyle name="標準 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_画面標準" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="良い" xfId="43" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1810,6 +2071,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1832,14 +2096,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
+          <a:off x="8382000" y="285750"/>
           <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
@@ -1847,7 +2117,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1931,7 +2207,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2031,7 +2313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2561,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2571,7 +2859,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2899,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2621,12 +2911,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="81">
-        <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43630</v>
-      </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="I25" s="85">
+        <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
+        <v>43895</v>
+      </c>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -3199,16 +3489,16 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3224,57 +3514,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="126" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="121" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="109">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="111"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3282,53 +3572,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="122" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="109" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="111"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3336,45 +3626,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="147" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="111"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3409,1036 +3699,1220 @@
     </row>
     <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="112" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="112" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="112" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="113"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="140">
+        <v>1</v>
+      </c>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142">
+        <v>43630</v>
+      </c>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97">
-        <v>43630</v>
-      </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="108"/>
-      <c r="AF8" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="105"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="90"/>
+      <c r="A9" s="74">
+        <v>2</v>
+      </c>
+      <c r="B9" s="125">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127">
+        <v>43804</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="90"/>
+      <c r="A10" s="74">
+        <v>3</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="127">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="90"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="90"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="90"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="90"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="90"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="90"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="90"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="90"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="90"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="90"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="90"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="93"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="90"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="93"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="90"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4462,164 +4936,8 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4628,7 +4946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4774,163 +5092,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="148" t="str">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="144" t="str">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="161" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="151">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="153"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="144" t="str">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="151" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="152"/>
-      <c r="AI2" s="153"/>
+        <v>43895</v>
+      </c>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="151" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="153"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -4990,7 +5308,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -5051,7 +5369,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="75" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -6393,14 +6711,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6410,8 +6720,16 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6420,13 +6738,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -6438,166 +6756,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="176" t="str">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="116" t="s">
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="144" t="str">
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="151">
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="152"/>
-      <c r="AL1" s="153"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="160"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="116" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="144" t="str">
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="146"/>
-      <c r="AJ2" s="151" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AK2" s="152"/>
-      <c r="AL2" s="153"/>
+        <v>43895</v>
+      </c>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="160"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="144" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="145"/>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="151" t="str">
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="153"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -6650,7 +6968,7 @@
     <row r="5" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="75" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -6700,26 +7018,26 @@
     <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="166"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="78"/>
@@ -6751,681 +7069,710 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="190" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="190" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="177"/>
+      <c r="N8" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="154" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="186"/>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="162"/>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="162"/>
-      <c r="AJ8" s="162"/>
-      <c r="AK8" s="163"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="174"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
+        <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="187"/>
-      <c r="N9" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="161" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="162"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="163"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
+      <c r="L9" s="175" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="177"/>
+      <c r="N9" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="174"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
+        <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="187"/>
-      <c r="N10" s="185" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="162"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="163"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="177"/>
+      <c r="N10" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="174"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="185" t="s">
+      <c r="D11" s="196"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="177"/>
+      <c r="N11" s="175" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
+    </row>
+    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="81">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="197" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="176" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="177"/>
+      <c r="N12" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="174"/>
+    </row>
+    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="81">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="177"/>
+      <c r="N13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="174"/>
+    </row>
+    <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="81">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="177"/>
+      <c r="N14" s="175" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="173"/>
+      <c r="AK14" s="174"/>
+    </row>
+    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="81">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="177"/>
+      <c r="N15" s="175" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="187"/>
-      <c r="N11" s="185" t="s">
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
+    </row>
+    <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="81">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="177"/>
+      <c r="N16" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="161" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="163"/>
-    </row>
-    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="74">
-        <v>5</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="185" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="187"/>
-      <c r="N12" s="185" t="s">
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="174"/>
+    </row>
+    <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="81">
+        <f t="shared" ref="C17:C26" si="1">C16+1</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="177"/>
+      <c r="N17" s="175" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="174"/>
+    </row>
+    <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="81">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="177"/>
+      <c r="N18" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="161" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="163"/>
-    </row>
-    <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="74">
-        <v>6</v>
-      </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="187"/>
-      <c r="N13" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="186"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="161" t="s">
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="174"/>
+    </row>
+    <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="81">
+        <f>C18+1</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="176" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="177"/>
+      <c r="N19" s="175" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="174"/>
+    </row>
+    <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="81">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="201"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="200"/>
+      <c r="N20" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="200"/>
+      <c r="X20" s="200"/>
+      <c r="Y20" s="204" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
+      <c r="AI20" s="200"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="200"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+    </row>
+    <row r="21" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="81">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="201"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="163"/>
-    </row>
-    <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="74">
-        <v>7</v>
-      </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="187"/>
-      <c r="N14" s="185" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="186"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="163"/>
-    </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="74">
-        <v>8</v>
-      </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="185" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="187"/>
-      <c r="N15" s="185" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="186"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="163"/>
-    </row>
-    <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="74">
-        <v>9</v>
-      </c>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="187"/>
-      <c r="N16" s="185" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="163"/>
-    </row>
-    <row r="17" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
-    </row>
-    <row r="18" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-    </row>
-    <row r="19" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="15"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="15"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-    </row>
-    <row r="20" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-    </row>
-    <row r="21" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="204" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
+      <c r="V21" s="200"/>
+      <c r="W21" s="200"/>
+      <c r="X21" s="200"/>
+      <c r="Y21" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="200"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
+      <c r="AD21" s="200"/>
+      <c r="AE21" s="200"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="200"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="200"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
     </row>
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
+      <c r="C22" s="81">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="200"/>
+      <c r="N22" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="V22" s="200"/>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200"/>
+      <c r="Y22" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="200"/>
+      <c r="AA22" s="200"/>
+      <c r="AB22" s="200"/>
+      <c r="AC22" s="200"/>
+      <c r="AD22" s="200"/>
+      <c r="AE22" s="200"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="200"/>
+      <c r="AI22" s="200"/>
+      <c r="AJ22" s="200"/>
+      <c r="AK22" s="200"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7439,41 +7786,50 @@
     <row r="23" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="15"/>
+      <c r="C23" s="81">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="200"/>
+      <c r="N23" s="204" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="200"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="204" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="200"/>
+      <c r="AA23" s="200"/>
+      <c r="AB23" s="200"/>
+      <c r="AC23" s="200"/>
+      <c r="AD23" s="200"/>
+      <c r="AE23" s="200"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="200"/>
+      <c r="AI23" s="200"/>
+      <c r="AJ23" s="200"/>
+      <c r="AK23" s="200"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7487,41 +7843,50 @@
     <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
+      <c r="C24" s="81">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="200"/>
+      <c r="N24" s="204" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="204" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="200"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="200"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7535,41 +7900,50 @@
     <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
+      <c r="C25" s="81">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="200"/>
+      <c r="N25" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="200"/>
+      <c r="AC25" s="200"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="200"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="200"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="200"/>
+      <c r="AK25" s="200"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7580,60 +7954,391 @@
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
     </row>
+    <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="81">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="200"/>
+      <c r="N26" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200"/>
+      <c r="AC26" s="200"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="200"/>
+      <c r="AJ26" s="200"/>
+      <c r="AK26" s="200"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+    </row>
+    <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+    </row>
+    <row r="28" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+    </row>
+    <row r="29" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+    </row>
+    <row r="30" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+    </row>
+    <row r="31" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="D12:F16"/>
-    <mergeCell ref="G12:K16"/>
+  <mergeCells count="84">
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:X15"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
     <mergeCell ref="N14:X14"/>
     <mergeCell ref="N16:X16"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="Y14:AK14"/>
     <mergeCell ref="N8:X8"/>
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="N10:X10"/>
     <mergeCell ref="N11:X11"/>
     <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
     <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF306F5-9A23-4AD9-9E90-CE6C50858CE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A689-D081-4311-95D7-745311A49B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,60 +411,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>プロジェクト照会：検索画面初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プロジェクト照会：検索結果一覧表示</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プロジェクト照会：詳細画面初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>/app/project/update</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -585,6 +533,60 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト検索：検索画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト検索：検索結果一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト検索：詳細画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -1655,6 +1657,105 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1772,104 +1873,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1880,131 +1891,8 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2014,6 +1902,120 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2109,8 +2111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8382000" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8953500" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2857,44 +2859,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="9" width="8.875" style="1"/>
+    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2902,12 +2904,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2918,42 +2920,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -2963,7 +2965,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -2976,522 +2978,522 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3508,63 +3510,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="15"/>
+    <col min="1" max="16384" width="4.875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="93" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="121" t="str">
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="119">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="121"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3572,53 +3574,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="93" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="99" t="str">
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="132" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="119">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="121"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3626,45 +3628,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="121"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3701,1218 +3703,1062 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="124"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="124"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="124"/>
+      <c r="AH7" s="124"/>
+      <c r="AI7" s="123"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="105">
         <v>1</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107">
         <v>43630</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151" t="s">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="148" t="s">
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="118"/>
+      <c r="AF8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="114"/>
+      <c r="AI8" s="115"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="102">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127">
+      <c r="C9" s="103"/>
+      <c r="D9" s="88">
         <v>43804</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136" t="s">
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="139" t="s">
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="135"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="94"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="156" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="127">
+      <c r="B10" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="156" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133" t="s">
+      <c r="H10" s="91"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="133" t="s">
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="135"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="94"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="135"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="94"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="94"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="135"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="94"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="135"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="94"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="135"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="94"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="134"/>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="135"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="94"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="135"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="94"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="135"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="94"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="94"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="135"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="94"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="135"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="94"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="134"/>
-      <c r="AI22" s="135"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="94"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="135"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="94"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="135"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="94"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="134"/>
-      <c r="AI25" s="135"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="94"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="94"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="139"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="135"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="94"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="135"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="94"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="135"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="94"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="139"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="135"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="94"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="139"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="135"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="94"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="94"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="135"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="94"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4936,6 +4782,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -4956,299 +4958,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="62" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="62" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="43"/>
-    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="43"/>
-    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="43"/>
-    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="43"/>
-    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="43"/>
-    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="43"/>
-    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="43"/>
-    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="43"/>
-    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="43"/>
-    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="43"/>
-    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="43"/>
-    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="43"/>
-    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="43"/>
-    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="43"/>
-    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="43"/>
-    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="43"/>
-    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="43"/>
-    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="43"/>
-    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="43"/>
-    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="43"/>
-    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="43"/>
-    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="43"/>
-    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="43"/>
-    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="43"/>
-    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="43"/>
-    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="43"/>
-    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="43"/>
-    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="43"/>
-    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="43"/>
-    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="43"/>
-    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="43"/>
-    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="43"/>
-    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="43"/>
-    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="43"/>
-    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="43"/>
-    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="43"/>
-    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="43"/>
-    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="43"/>
-    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="43"/>
-    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="43"/>
-    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="43"/>
-    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="43"/>
-    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="43"/>
-    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="43"/>
-    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="43"/>
-    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="43"/>
-    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="43"/>
-    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="43"/>
-    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="43"/>
-    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="43"/>
-    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="43"/>
-    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="43"/>
-    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="43"/>
-    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="43"/>
-    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="43"/>
-    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="43"/>
-    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="43"/>
-    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="43"/>
-    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="43"/>
-    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="43"/>
-    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="43"/>
-    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="43"/>
-    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="43"/>
-    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="43"/>
+    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="62" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="62" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="43"/>
+    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="43"/>
+    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="43"/>
+    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="43"/>
+    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="43"/>
+    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="43"/>
+    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="43"/>
+    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="43"/>
+    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="43"/>
+    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="43"/>
+    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="43"/>
+    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="43"/>
+    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="43"/>
+    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="43"/>
+    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="43"/>
+    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="43"/>
+    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="43"/>
+    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="43"/>
+    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="43"/>
+    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="43"/>
+    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="43"/>
+    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="43"/>
+    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="43"/>
+    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="43"/>
+    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="43"/>
+    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="43"/>
+    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="43"/>
+    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="43"/>
+    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="43"/>
+    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="43"/>
+    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="43"/>
+    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="43"/>
+    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="43"/>
+    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="43"/>
+    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="43"/>
+    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="43"/>
+    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="43"/>
+    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="43"/>
+    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="43"/>
+    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="43"/>
+    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="43"/>
+    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="43"/>
+    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="43"/>
+    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="43"/>
+    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="43"/>
+    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="43"/>
+    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="43"/>
+    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="43"/>
+    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="43"/>
+    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="43"/>
+    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="43"/>
+    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="43"/>
+    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="43"/>
+    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="43"/>
+    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="43"/>
+    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="43"/>
+    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="43"/>
+    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="43"/>
+    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="43"/>
+    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="43"/>
+    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="43"/>
+    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="43"/>
+    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="43"/>
+    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="str">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="121" t="str">
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="161">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="163"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="121" t="str">
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="161">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="163"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="str">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="121" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="163"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6293,7 +6295,7 @@
       <c r="AH31" s="50"/>
       <c r="AI31" s="51"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="54"/>
       <c r="C32" s="16"/>
@@ -6367,7 +6369,7 @@
       <c r="AH33" s="50"/>
       <c r="AI33" s="51"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="54"/>
       <c r="C34" s="16"/>
@@ -6711,6 +6713,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6720,14 +6730,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -6748,174 +6750,174 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="45" width="4.83203125" style="17" customWidth="1"/>
-    <col min="46" max="46" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="4.83203125" style="17"/>
+    <col min="1" max="45" width="4.875" style="17" customWidth="1"/>
+    <col min="46" max="46" width="23.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="4.875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="str">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="178" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="164" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="93" t="s">
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="192"/>
+      <c r="AD1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="121" t="str">
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="158">
+      <c r="AG1" s="155"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="161">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="160"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="163"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="str">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="93" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="121" t="str">
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="158">
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="156"/>
+      <c r="AJ2" s="161">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="160"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="163"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="str">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="121" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="158" t="str">
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="160"/>
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="163"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -7069,560 +7071,560 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="190" t="s">
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="182"/>
       <c r="L8" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="177"/>
+      <c r="M8" s="174"/>
       <c r="N8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="133" t="s">
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="173"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="174"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="177"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="185"/>
       <c r="L9" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="177"/>
+      <c r="M9" s="174"/>
       <c r="N9" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="133" t="s">
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="173"/>
-      <c r="AK9" s="174"/>
+      <c r="Z9" s="176"/>
+      <c r="AA9" s="176"/>
+      <c r="AB9" s="176"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="176"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="176"/>
+      <c r="AJ9" s="176"/>
+      <c r="AK9" s="177"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
         <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="185"/>
       <c r="L10" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="177"/>
+      <c r="M10" s="174"/>
       <c r="N10" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="176"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="133" t="s">
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="173"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="173"/>
-      <c r="AK10" s="174"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="176"/>
+      <c r="AI10" s="176"/>
+      <c r="AJ10" s="176"/>
+      <c r="AK10" s="177"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="185"/>
       <c r="L11" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="177"/>
+      <c r="M11" s="174"/>
       <c r="N11" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="176"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="133" t="s">
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="173"/>
+      <c r="V11" s="173"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
+      <c r="AD11" s="176"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="176"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="176"/>
+      <c r="AJ11" s="176"/>
+      <c r="AK11" s="177"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="197"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="197" t="s">
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="176" t="s">
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="177"/>
+      <c r="M12" s="174"/>
       <c r="N12" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="133" t="s">
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="173"/>
+      <c r="S12" s="173"/>
+      <c r="T12" s="173"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="173"/>
+      <c r="W12" s="173"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="173"/>
-      <c r="AK12" s="174"/>
+      <c r="Z12" s="176"/>
+      <c r="AA12" s="176"/>
+      <c r="AB12" s="176"/>
+      <c r="AC12" s="176"/>
+      <c r="AD12" s="176"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="176"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="176"/>
+      <c r="AJ12" s="176"/>
+      <c r="AK12" s="177"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="176" t="s">
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="177"/>
+      <c r="M13" s="174"/>
       <c r="N13" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="133" t="s">
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="174"/>
+      <c r="Z13" s="176"/>
+      <c r="AA13" s="176"/>
+      <c r="AB13" s="176"/>
+      <c r="AC13" s="176"/>
+      <c r="AD13" s="176"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="176"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="176"/>
+      <c r="AI13" s="176"/>
+      <c r="AJ13" s="176"/>
+      <c r="AK13" s="177"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="81">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="176" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="177"/>
+      <c r="M14" s="174"/>
       <c r="N14" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="176"/>
-      <c r="U14" s="176"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="133" t="s">
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="173"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="173"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="173"/>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="173"/>
-      <c r="AK14" s="174"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="176"/>
+      <c r="AB14" s="176"/>
+      <c r="AC14" s="176"/>
+      <c r="AD14" s="176"/>
+      <c r="AE14" s="176"/>
+      <c r="AF14" s="176"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="176"/>
+      <c r="AI14" s="176"/>
+      <c r="AJ14" s="176"/>
+      <c r="AK14" s="177"/>
     </row>
     <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="81">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="176" t="s">
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="177"/>
+      <c r="M15" s="174"/>
       <c r="N15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="176"/>
-      <c r="U15" s="176"/>
-      <c r="V15" s="176"/>
-      <c r="W15" s="176"/>
-      <c r="X15" s="177"/>
-      <c r="Y15" s="133" t="s">
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="173"/>
+      <c r="U15" s="173"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="173"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="174"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="176"/>
+      <c r="AI15" s="176"/>
+      <c r="AJ15" s="176"/>
+      <c r="AK15" s="177"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="81">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="176" t="s">
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="177"/>
+      <c r="M16" s="174"/>
       <c r="N16" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="176"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="176"/>
-      <c r="U16" s="176"/>
-      <c r="V16" s="176"/>
-      <c r="W16" s="176"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="133" t="s">
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="173"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="173"/>
+      <c r="U16" s="173"/>
+      <c r="V16" s="173"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="174"/>
+      <c r="Z16" s="176"/>
+      <c r="AA16" s="176"/>
+      <c r="AB16" s="176"/>
+      <c r="AC16" s="176"/>
+      <c r="AD16" s="176"/>
+      <c r="AE16" s="176"/>
+      <c r="AF16" s="176"/>
+      <c r="AG16" s="176"/>
+      <c r="AH16" s="176"/>
+      <c r="AI16" s="176"/>
+      <c r="AJ16" s="176"/>
+      <c r="AK16" s="177"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="81">
         <f t="shared" ref="C17:C26" si="1">C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="176" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="177"/>
+      <c r="M17" s="174"/>
       <c r="N17" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="176"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="177"/>
-      <c r="Y17" s="133" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="174"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="173"/>
+      <c r="S17" s="173"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="173"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="173"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" s="176"/>
+      <c r="AA17" s="176"/>
+      <c r="AB17" s="176"/>
+      <c r="AC17" s="176"/>
+      <c r="AD17" s="176"/>
+      <c r="AE17" s="176"/>
+      <c r="AF17" s="176"/>
+      <c r="AG17" s="176"/>
+      <c r="AH17" s="176"/>
+      <c r="AI17" s="176"/>
+      <c r="AJ17" s="176"/>
+      <c r="AK17" s="177"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="81">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="176" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="177"/>
+      <c r="M18" s="174"/>
       <c r="N18" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176"/>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="173"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="174"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="173"/>
+      <c r="T18" s="173"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="176"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="176"/>
+      <c r="AI18" s="176"/>
+      <c r="AJ18" s="176"/>
+      <c r="AK18" s="177"/>
     </row>
     <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="81">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="176" t="s">
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="177"/>
+      <c r="M19" s="174"/>
       <c r="N19" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="176"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="176"/>
-      <c r="U19" s="176"/>
-      <c r="V19" s="176"/>
-      <c r="W19" s="176"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="173"/>
-      <c r="AJ19" s="173"/>
-      <c r="AK19" s="174"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="176"/>
+      <c r="AE19" s="176"/>
+      <c r="AF19" s="176"/>
+      <c r="AG19" s="176"/>
+      <c r="AH19" s="176"/>
+      <c r="AI19" s="176"/>
+      <c r="AJ19" s="176"/>
+      <c r="AK19" s="177"/>
     </row>
     <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
@@ -7631,46 +7633,46 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="199" t="s">
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="200"/>
-      <c r="N20" s="204" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="200"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="200"/>
-      <c r="S20" s="200"/>
-      <c r="T20" s="200"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="200"/>
-      <c r="W20" s="200"/>
-      <c r="X20" s="200"/>
-      <c r="Y20" s="204" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
-      <c r="AF20" s="200"/>
-      <c r="AG20" s="200"/>
-      <c r="AH20" s="200"/>
-      <c r="AI20" s="200"/>
-      <c r="AJ20" s="200"/>
-      <c r="AK20" s="200"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="166" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z20" s="165"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="165"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="165"/>
+      <c r="AJ20" s="165"/>
+      <c r="AK20" s="165"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
@@ -7682,46 +7684,46 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="199" t="s">
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="200"/>
-      <c r="N21" s="204" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="200"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="200"/>
-      <c r="U21" s="200"/>
-      <c r="V21" s="200"/>
-      <c r="W21" s="200"/>
-      <c r="X21" s="200"/>
-      <c r="Y21" s="204" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" s="200"/>
-      <c r="AA21" s="200"/>
-      <c r="AB21" s="200"/>
-      <c r="AC21" s="200"/>
-      <c r="AD21" s="200"/>
-      <c r="AE21" s="200"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="200"/>
-      <c r="AH21" s="200"/>
-      <c r="AI21" s="200"/>
-      <c r="AJ21" s="200"/>
-      <c r="AK21" s="200"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="165"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="165"/>
+      <c r="X21" s="165"/>
+      <c r="Y21" s="166" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="165"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="165"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="165"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="165"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="165"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
@@ -7733,46 +7735,46 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="199" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="200"/>
-      <c r="N22" s="204" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="200"/>
-      <c r="P22" s="200"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="200"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="200"/>
-      <c r="U22" s="200"/>
-      <c r="V22" s="200"/>
-      <c r="W22" s="200"/>
-      <c r="X22" s="200"/>
-      <c r="Y22" s="204" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" s="200"/>
-      <c r="AA22" s="200"/>
-      <c r="AB22" s="200"/>
-      <c r="AC22" s="200"/>
-      <c r="AD22" s="200"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="200"/>
-      <c r="AI22" s="200"/>
-      <c r="AJ22" s="200"/>
-      <c r="AK22" s="200"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="165"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="165"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="165"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="165"/>
+      <c r="AJ22" s="165"/>
+      <c r="AK22" s="165"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7798,38 +7800,38 @@
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="199" t="s">
+      <c r="L23" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="200"/>
-      <c r="N23" s="204" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
-      <c r="T23" s="200"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="200"/>
-      <c r="W23" s="200"/>
-      <c r="X23" s="200"/>
-      <c r="Y23" s="204" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z23" s="200"/>
-      <c r="AA23" s="200"/>
-      <c r="AB23" s="200"/>
-      <c r="AC23" s="200"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="200"/>
-      <c r="AI23" s="200"/>
-      <c r="AJ23" s="200"/>
-      <c r="AK23" s="200"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="165"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="165"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="165"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7855,38 +7857,38 @@
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="199" t="s">
+      <c r="L24" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="200"/>
-      <c r="N24" s="204" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" s="200"/>
-      <c r="P24" s="200"/>
-      <c r="Q24" s="200"/>
-      <c r="R24" s="200"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
-      <c r="X24" s="200"/>
-      <c r="Y24" s="204" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z24" s="200"/>
-      <c r="AA24" s="200"/>
-      <c r="AB24" s="200"/>
-      <c r="AC24" s="200"/>
-      <c r="AD24" s="200"/>
-      <c r="AE24" s="200"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="200"/>
-      <c r="AI24" s="200"/>
-      <c r="AJ24" s="200"/>
-      <c r="AK24" s="200"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="166" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="165"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="165"/>
+      <c r="AJ24" s="165"/>
+      <c r="AK24" s="165"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7912,38 +7914,38 @@
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="199" t="s">
+      <c r="L25" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="200"/>
-      <c r="N25" s="204" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="200"/>
-      <c r="S25" s="200"/>
-      <c r="T25" s="200"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="200"/>
-      <c r="W25" s="200"/>
-      <c r="X25" s="200"/>
-      <c r="Y25" s="204" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z25" s="200"/>
-      <c r="AA25" s="200"/>
-      <c r="AB25" s="200"/>
-      <c r="AC25" s="200"/>
-      <c r="AD25" s="200"/>
-      <c r="AE25" s="200"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="200"/>
-      <c r="AI25" s="200"/>
-      <c r="AJ25" s="200"/>
-      <c r="AK25" s="200"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z25" s="165"/>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="165"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="165"/>
+      <c r="AJ25" s="165"/>
+      <c r="AK25" s="165"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7961,46 +7963,46 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D26" s="205"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="207"/>
-      <c r="L26" s="199" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="200"/>
-      <c r="N26" s="204" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="204" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="200"/>
-      <c r="AI26" s="200"/>
-      <c r="AJ26" s="200"/>
-      <c r="AK26" s="200"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="166" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="165"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="165"/>
+      <c r="AJ26" s="165"/>
+      <c r="AK26" s="165"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
@@ -8253,31 +8255,49 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AK24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="Y14:AK14"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y12:AK12"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:X18"/>
     <mergeCell ref="Y18:AK18"/>
@@ -8294,54 +8314,36 @@
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:X15"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A689-D081-4311-95D7-745311A49B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF306F5-9A23-4AD9-9E90-CE6C50858CE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -411,6 +409,60 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>プロジェクト照会：検索画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：検索結果一覧表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プロジェクト照会：詳細画面初期表示</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>/app/project/update</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -533,60 +585,6 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プロジェクト検索：検索画面初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プロジェクト検索：検索結果一覧表示</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プロジェクト検索：詳細画面初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -1657,242 +1655,356 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1902,120 +2014,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2111,8 +2109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2859,44 +2857,44 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2904,12 +2902,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2920,42 +2918,42 @@
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -2965,7 +2963,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -2978,522 +2976,522 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3510,63 +3508,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="15"/>
+    <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="121" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="119">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3574,53 +3572,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3628,45 +3626,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3703,1062 +3701,1218 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="140">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="141"/>
+      <c r="D8" s="142">
         <v>43630</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="100" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="B10" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="127">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="100" t="s">
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="100" t="s">
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="154"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4782,162 +4936,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -4958,299 +4956,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="62" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="62" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="43"/>
-    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="43"/>
-    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="43"/>
-    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="43"/>
-    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="43"/>
-    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="43"/>
-    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="43"/>
-    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="43"/>
-    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="43"/>
-    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="43"/>
-    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="43"/>
-    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="43"/>
-    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="43"/>
-    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="43"/>
-    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="43"/>
-    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="43"/>
-    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="43"/>
-    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="43"/>
-    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="43"/>
-    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="43"/>
-    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="43"/>
-    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="43"/>
-    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="43"/>
-    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="43"/>
-    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="43"/>
-    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="43"/>
-    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="43"/>
-    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="43"/>
-    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="43"/>
-    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="43"/>
-    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="43"/>
-    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="43"/>
-    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="43"/>
-    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="43"/>
-    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="43"/>
-    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="43"/>
-    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="43"/>
-    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="43"/>
-    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="43"/>
-    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="43"/>
-    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="43"/>
-    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="43"/>
-    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="43"/>
-    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="43"/>
-    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="43"/>
-    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="43"/>
-    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="43"/>
-    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="43"/>
-    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="43"/>
-    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="43"/>
-    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="43"/>
-    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="43"/>
-    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="43"/>
-    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="43"/>
-    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="43"/>
-    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="43"/>
-    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="43"/>
-    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="43"/>
-    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="43"/>
-    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="43"/>
-    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="43"/>
-    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="43"/>
-    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="43"/>
-    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="62" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="62" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6295,7 +6293,7 @@
       <c r="AH31" s="50"/>
       <c r="AI31" s="51"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="54"/>
       <c r="C32" s="16"/>
@@ -6369,7 +6367,7 @@
       <c r="AH33" s="50"/>
       <c r="AI33" s="51"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="54"/>
       <c r="C34" s="16"/>
@@ -6713,14 +6711,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6730,6 +6720,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -6750,174 +6748,174 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="45" width="4.875" style="17" customWidth="1"/>
-    <col min="46" max="46" width="23.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="4.875" style="17"/>
+    <col min="1" max="45" width="4.83203125" style="17" customWidth="1"/>
+    <col min="46" max="46" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="190" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="126" t="s">
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="154" t="str">
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="161">
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="163"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="160"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="154" t="str">
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="161">
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="163"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="160"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="154" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="161" t="str">
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="163"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -7071,560 +7069,560 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="180" t="s">
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
       <c r="L8" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="174"/>
+      <c r="M8" s="177"/>
       <c r="N8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="100" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="177"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="174"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="185"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
       <c r="L9" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="177"/>
       <c r="N9" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="100" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="176"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="177"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="174"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
         <f t="shared" ref="C10:C16" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="185"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
       <c r="L10" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="174"/>
+      <c r="M10" s="177"/>
       <c r="N10" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="100" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="176"/>
-      <c r="AA10" s="176"/>
-      <c r="AB10" s="176"/>
-      <c r="AC10" s="176"/>
-      <c r="AD10" s="176"/>
-      <c r="AE10" s="176"/>
-      <c r="AF10" s="176"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="176"/>
-      <c r="AI10" s="176"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="177"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="174"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="185"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
       <c r="L11" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="174"/>
+      <c r="M11" s="177"/>
       <c r="N11" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="100" t="s">
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="Z11" s="176"/>
-      <c r="AA11" s="176"/>
-      <c r="AB11" s="176"/>
-      <c r="AC11" s="176"/>
-      <c r="AD11" s="176"/>
-      <c r="AE11" s="176"/>
-      <c r="AF11" s="176"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="176"/>
-      <c r="AI11" s="176"/>
-      <c r="AJ11" s="176"/>
-      <c r="AK11" s="177"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178" t="s">
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="173" t="s">
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="174"/>
+      <c r="M12" s="177"/>
       <c r="N12" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="173"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="100" t="s">
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="Z12" s="176"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="176"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="176"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="176"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="177"/>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="174"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="173" t="s">
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="174"/>
+      <c r="M13" s="177"/>
       <c r="N13" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="100" t="s">
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="176"/>
-      <c r="AJ13" s="176"/>
-      <c r="AK13" s="177"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="174"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="81">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="173" t="s">
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="174"/>
+      <c r="M14" s="177"/>
       <c r="N14" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="100" t="s">
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="176"/>
-      <c r="AB14" s="176"/>
-      <c r="AC14" s="176"/>
-      <c r="AD14" s="176"/>
-      <c r="AE14" s="176"/>
-      <c r="AF14" s="176"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="176"/>
-      <c r="AJ14" s="176"/>
-      <c r="AK14" s="177"/>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="173"/>
+      <c r="AK14" s="174"/>
     </row>
     <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="81">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="173" t="s">
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="174"/>
+      <c r="M15" s="177"/>
       <c r="N15" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="100" t="s">
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="177"/>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="81">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="173" t="s">
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="174"/>
+      <c r="M16" s="177"/>
       <c r="N16" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="100" t="s">
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="Z16" s="176"/>
-      <c r="AA16" s="176"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="176"/>
-      <c r="AD16" s="176"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="176"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="176"/>
-      <c r="AJ16" s="176"/>
-      <c r="AK16" s="177"/>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="174"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="81">
         <f t="shared" ref="C17:C26" si="1">C16+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="173" t="s">
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="174"/>
+      <c r="M17" s="177"/>
       <c r="N17" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="176"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="176"/>
-      <c r="AJ17" s="176"/>
-      <c r="AK17" s="177"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="174"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="81">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="174"/>
+      <c r="M18" s="177"/>
       <c r="N18" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="176"/>
-      <c r="AJ18" s="176"/>
-      <c r="AK18" s="177"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="174"/>
     </row>
     <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="81">
         <f>C18+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="173" t="s">
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="174"/>
+      <c r="M19" s="177"/>
       <c r="N19" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="176"/>
-      <c r="AK19" s="177"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="174"/>
     </row>
     <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
@@ -7633,46 +7631,46 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="164" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="200"/>
+      <c r="X20" s="200"/>
+      <c r="Y20" s="204" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
+      <c r="AI20" s="200"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="200"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
@@ -7684,46 +7682,46 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="164" t="s">
+      <c r="D21" s="201"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="204" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
+      <c r="V21" s="200"/>
+      <c r="W21" s="200"/>
+      <c r="X21" s="200"/>
+      <c r="Y21" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="200"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
+      <c r="AD21" s="200"/>
+      <c r="AE21" s="200"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="200"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="200"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
       <c r="AN21" s="16"/>
@@ -7735,46 +7733,46 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="164" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="166" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="V22" s="200"/>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200"/>
+      <c r="Y22" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="200"/>
+      <c r="AA22" s="200"/>
+      <c r="AB22" s="200"/>
+      <c r="AC22" s="200"/>
+      <c r="AD22" s="200"/>
+      <c r="AE22" s="200"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="200"/>
+      <c r="AI22" s="200"/>
+      <c r="AJ22" s="200"/>
+      <c r="AK22" s="200"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7800,38 +7798,38 @@
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="164" t="s">
+      <c r="L23" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="204" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="200"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="204" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="200"/>
+      <c r="AA23" s="200"/>
+      <c r="AB23" s="200"/>
+      <c r="AC23" s="200"/>
+      <c r="AD23" s="200"/>
+      <c r="AE23" s="200"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="200"/>
+      <c r="AI23" s="200"/>
+      <c r="AJ23" s="200"/>
+      <c r="AK23" s="200"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7857,38 +7855,38 @@
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="164" t="s">
+      <c r="L24" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="204" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="204" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="200"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="200"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7914,38 +7912,38 @@
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="164" t="s">
+      <c r="L25" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="200"/>
+      <c r="AC25" s="200"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="200"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="200"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="200"/>
+      <c r="AK25" s="200"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7963,46 +7961,46 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="164" t="s">
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="165"/>
-      <c r="N26" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200"/>
+      <c r="AC26" s="200"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="200"/>
+      <c r="AJ26" s="200"/>
+      <c r="AK26" s="200"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
@@ -8255,21 +8253,59 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D20:F22"/>
+    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="G12:K19"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="D8:F11"/>
+    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="E1:N1"/>
@@ -8286,64 +8322,26 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="Y16:AK16"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="Y15:AK15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G20:K22"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="Y14:AK14"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y12:AK12"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="O1:T3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A689-D081-4311-95D7-745311A49B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F41C29-81CE-409D-B6C7-261AD1EECE27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>PJ名</t>
   </si>
@@ -382,16 +380,6 @@
   <si>
     <t>URL一覧</t>
     <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
   </si>
   <si>
     <t>/app/project/detail</t>
@@ -590,6 +578,47 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TOPメニューの分類を共通に見直し</t>
+    <rPh sb="8" eb="10">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
   </si>
 </sst>
 </file>
@@ -1454,7 +1483,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1657,242 +1686,353 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1903,119 +2043,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2111,8 +2146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2857,105 +2892,107 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="85">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -2965,7 +3002,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -2978,522 +3015,522 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3510,63 +3547,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="15"/>
+    <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="121" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="119">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3574,53 +3611,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="99" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3628,45 +3665,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3703,1062 +3740,1232 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="140">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="141"/>
+      <c r="D8" s="142">
         <v>43630</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="150"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="100" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="156" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="127">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
-        <v>43895</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="99" t="s">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
+    </row>
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74">
         <v>4</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="100" t="s">
+      <c r="B11" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="127">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="100" t="s">
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
-    </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="154"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4782,162 +4989,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -4958,299 +5009,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="62" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="62" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="43"/>
-    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="43"/>
-    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="43"/>
-    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="43"/>
-    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="43"/>
-    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="43"/>
-    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="43"/>
-    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="43"/>
-    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="43"/>
-    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="43"/>
-    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="43"/>
-    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="43"/>
-    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="43"/>
-    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="43"/>
-    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="43"/>
-    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="43"/>
-    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="43"/>
-    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="43"/>
-    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="43"/>
-    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="43"/>
-    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="43"/>
-    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="43"/>
-    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="43"/>
-    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="43"/>
-    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="43"/>
-    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="43"/>
-    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="43"/>
-    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="43"/>
-    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="43"/>
-    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="43"/>
-    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="43"/>
-    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="43"/>
-    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="43"/>
-    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="43"/>
-    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="43"/>
-    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="43"/>
-    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="43"/>
-    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="43"/>
-    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="43"/>
-    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="43"/>
-    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="43"/>
-    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="43"/>
-    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="43"/>
-    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="43"/>
-    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="43"/>
-    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="43"/>
-    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="43"/>
-    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="43"/>
-    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="43"/>
-    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="43"/>
-    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="43"/>
-    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="43"/>
-    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="43"/>
-    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="43"/>
-    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="43"/>
-    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="43"/>
-    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="43"/>
-    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="43"/>
-    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="43"/>
-    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="43"/>
-    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="43"/>
-    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="43"/>
-    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="43"/>
-    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="62" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="62" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6295,7 +6346,7 @@
       <c r="AH31" s="50"/>
       <c r="AI31" s="51"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="54"/>
       <c r="C32" s="16"/>
@@ -6369,7 +6420,7 @@
       <c r="AH33" s="50"/>
       <c r="AI33" s="51"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="54"/>
       <c r="C34" s="16"/>
@@ -6713,14 +6764,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6730,6 +6773,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -6750,174 +6801,174 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="45" width="4.875" style="17" customWidth="1"/>
-    <col min="46" max="46" width="23.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="4.875" style="17"/>
+    <col min="1" max="45" width="4.83203125" style="17" customWidth="1"/>
+    <col min="46" max="46" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="190" t="str">
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="126" t="s">
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="154" t="str">
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="161">
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="163"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="160"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="126" t="s">
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="154" t="str">
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="161">
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="163"/>
+        <v>44796</v>
+      </c>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="160"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="154" t="str">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="161" t="str">
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="163"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -7071,710 +7122,721 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="180" t="s">
+      <c r="E8" s="191"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
       <c r="L8" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="174"/>
+      <c r="M8" s="177"/>
       <c r="N8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="100" t="s">
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="177"/>
+      <c r="Z8" s="173"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="174"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="185"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
       <c r="L9" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="174"/>
+      <c r="M9" s="177"/>
       <c r="N9" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="100" t="s">
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="176"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="177"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="174"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
-        <f t="shared" ref="C10:C16" si="0">C9+1</f>
+        <f t="shared" ref="C10:C26" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="185"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
       <c r="L10" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="174"/>
+      <c r="M10" s="177"/>
       <c r="N10" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="100" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="176"/>
-      <c r="AA10" s="176"/>
-      <c r="AB10" s="176"/>
-      <c r="AC10" s="176"/>
-      <c r="AD10" s="176"/>
-      <c r="AE10" s="176"/>
-      <c r="AF10" s="176"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="176"/>
-      <c r="AI10" s="176"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="177"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="174"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="175" t="s">
+      <c r="D11" s="196" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="174"/>
+      <c r="M11" s="177"/>
       <c r="N11" s="175" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="176"/>
-      <c r="AA11" s="176"/>
-      <c r="AB11" s="176"/>
-      <c r="AC11" s="176"/>
-      <c r="AD11" s="176"/>
-      <c r="AE11" s="176"/>
-      <c r="AF11" s="176"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="176"/>
-      <c r="AI11" s="176"/>
-      <c r="AJ11" s="176"/>
-      <c r="AK11" s="177"/>
+        <v>55</v>
+      </c>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="81">
+      <c r="C12" s="74">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="174"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="177"/>
       <c r="N12" s="175" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="173"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="176"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="176"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="176"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="176"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="177"/>
+        <v>49</v>
+      </c>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="173"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="174"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="81">
+      <c r="C13" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="173" t="s">
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="174"/>
+      <c r="M13" s="177"/>
       <c r="N13" s="175" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="176"/>
-      <c r="AJ13" s="176"/>
-      <c r="AK13" s="177"/>
+        <v>50</v>
+      </c>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="174"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="81">
+      <c r="C14" s="74">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="174"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="177"/>
       <c r="N14" s="175" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="176"/>
-      <c r="AB14" s="176"/>
-      <c r="AC14" s="176"/>
-      <c r="AD14" s="176"/>
-      <c r="AE14" s="176"/>
-      <c r="AF14" s="176"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="176"/>
-      <c r="AJ14" s="176"/>
-      <c r="AK14" s="177"/>
-    </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="81">
+        <v>51</v>
+      </c>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z14" s="173"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="173"/>
+      <c r="AK14" s="174"/>
+    </row>
+    <row r="15" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="74">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="173" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="174"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="177"/>
       <c r="N15" s="175" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="177"/>
+        <v>52</v>
+      </c>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="173"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="81">
+      <c r="C16" s="74">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="174"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="177"/>
       <c r="N16" s="175" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z16" s="176"/>
-      <c r="AA16" s="176"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="176"/>
-      <c r="AD16" s="176"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="176"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="176"/>
-      <c r="AJ16" s="176"/>
-      <c r="AK16" s="177"/>
+        <v>58</v>
+      </c>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="133" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="173"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="174"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="81">
-        <f t="shared" ref="C17:C26" si="1">C16+1</f>
+      <c r="C17" s="74">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="173" t="s">
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="174"/>
+      <c r="M17" s="177"/>
       <c r="N17" s="175" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="176"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="176"/>
-      <c r="AJ17" s="176"/>
-      <c r="AK17" s="177"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="174"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="81">
-        <f t="shared" si="1"/>
+      <c r="C18" s="74">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="174"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="176" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="177"/>
       <c r="N18" s="175" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="176"/>
-      <c r="AJ18" s="176"/>
-      <c r="AK18" s="177"/>
-    </row>
-    <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="81">
-        <f>C18+1</f>
+      <c r="Z18" s="173"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="174"/>
+    </row>
+    <row r="19" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="74">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="174"/>
-      <c r="N19" s="175" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="176"/>
-      <c r="AK19" s="177"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="198" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="199"/>
+      <c r="N19" s="203" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
+      <c r="U19" s="199"/>
+      <c r="V19" s="199"/>
+      <c r="W19" s="199"/>
+      <c r="X19" s="199"/>
+      <c r="Y19" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="199"/>
+      <c r="AC19" s="199"/>
+      <c r="AD19" s="199"/>
+      <c r="AE19" s="199"/>
+      <c r="AF19" s="199"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
+      <c r="AI19" s="199"/>
+      <c r="AJ19" s="199"/>
+      <c r="AK19" s="199"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
     </row>
     <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="81">
-        <f t="shared" si="1"/>
+      <c r="C20" s="74">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166" t="s">
+      <c r="D20" s="200"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="199"/>
+      <c r="N20" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
+      <c r="U20" s="199"/>
+      <c r="V20" s="199"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="199"/>
+      <c r="Y20" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="199"/>
+      <c r="AB20" s="199"/>
+      <c r="AC20" s="199"/>
+      <c r="AD20" s="199"/>
+      <c r="AE20" s="199"/>
+      <c r="AF20" s="199"/>
+      <c r="AG20" s="199"/>
+      <c r="AH20" s="199"/>
+      <c r="AI20" s="199"/>
+      <c r="AJ20" s="199"/>
+      <c r="AK20" s="199"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
     </row>
-    <row r="21" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="81">
-        <f t="shared" si="1"/>
+    <row r="21" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="74">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="164" t="s">
+      <c r="D21" s="200"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="203" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="199"/>
+      <c r="P21" s="199"/>
+      <c r="Q21" s="199"/>
+      <c r="R21" s="199"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="199"/>
+      <c r="U21" s="199"/>
+      <c r="V21" s="199"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="199"/>
+      <c r="Y21" s="203" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z21" s="199"/>
+      <c r="AA21" s="199"/>
+      <c r="AB21" s="199"/>
+      <c r="AC21" s="199"/>
+      <c r="AD21" s="199"/>
+      <c r="AE21" s="199"/>
+      <c r="AF21" s="199"/>
+      <c r="AG21" s="199"/>
+      <c r="AH21" s="199"/>
+      <c r="AI21" s="199"/>
+      <c r="AJ21" s="199"/>
+      <c r="AK21" s="199"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
     </row>
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="81">
-        <f t="shared" si="1"/>
+      <c r="C22" s="74">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="166" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="198" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="199"/>
+      <c r="N22" s="203" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="199"/>
+      <c r="P22" s="199"/>
+      <c r="Q22" s="199"/>
+      <c r="R22" s="199"/>
+      <c r="S22" s="199"/>
+      <c r="T22" s="199"/>
+      <c r="U22" s="199"/>
+      <c r="V22" s="199"/>
+      <c r="W22" s="199"/>
+      <c r="X22" s="199"/>
+      <c r="Y22" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
+      <c r="Z22" s="199"/>
+      <c r="AA22" s="199"/>
+      <c r="AB22" s="199"/>
+      <c r="AC22" s="199"/>
+      <c r="AD22" s="199"/>
+      <c r="AE22" s="199"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="199"/>
+      <c r="AH22" s="199"/>
+      <c r="AI22" s="199"/>
+      <c r="AJ22" s="199"/>
+      <c r="AK22" s="199"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7788,8 +7850,8 @@
     <row r="23" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="81">
-        <f t="shared" si="1"/>
+      <c r="C23" s="74">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D23" s="82"/>
@@ -7800,38 +7862,38 @@
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
+      <c r="L23" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="199"/>
+      <c r="N23" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="199"/>
+      <c r="P23" s="199"/>
+      <c r="Q23" s="199"/>
+      <c r="R23" s="199"/>
+      <c r="S23" s="199"/>
+      <c r="T23" s="199"/>
+      <c r="U23" s="199"/>
+      <c r="V23" s="199"/>
+      <c r="W23" s="199"/>
+      <c r="X23" s="199"/>
+      <c r="Y23" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="199"/>
+      <c r="AA23" s="199"/>
+      <c r="AB23" s="199"/>
+      <c r="AC23" s="199"/>
+      <c r="AD23" s="199"/>
+      <c r="AE23" s="199"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="199"/>
+      <c r="AH23" s="199"/>
+      <c r="AI23" s="199"/>
+      <c r="AJ23" s="199"/>
+      <c r="AK23" s="199"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7845,8 +7907,8 @@
     <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="81">
-        <f t="shared" si="1"/>
+      <c r="C24" s="74">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D24" s="82"/>
@@ -7857,38 +7919,38 @@
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="164" t="s">
+      <c r="L24" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="166" t="s">
+      <c r="M24" s="199"/>
+      <c r="N24" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="199"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="203" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="199"/>
+      <c r="AC24" s="199"/>
+      <c r="AD24" s="199"/>
+      <c r="AE24" s="199"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="199"/>
+      <c r="AH24" s="199"/>
+      <c r="AI24" s="199"/>
+      <c r="AJ24" s="199"/>
+      <c r="AK24" s="199"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7902,50 +7964,50 @@
     <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="81">
-        <f t="shared" si="1"/>
+      <c r="C25" s="74">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166" t="s">
+      <c r="D25" s="204"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="198" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="199"/>
+      <c r="N25" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="199"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
+      <c r="R25" s="199"/>
+      <c r="S25" s="199"/>
+      <c r="T25" s="199"/>
+      <c r="U25" s="199"/>
+      <c r="V25" s="199"/>
+      <c r="W25" s="199"/>
+      <c r="X25" s="199"/>
+      <c r="Y25" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
+      <c r="Z25" s="199"/>
+      <c r="AA25" s="199"/>
+      <c r="AB25" s="199"/>
+      <c r="AC25" s="199"/>
+      <c r="AD25" s="199"/>
+      <c r="AE25" s="199"/>
+      <c r="AF25" s="199"/>
+      <c r="AG25" s="199"/>
+      <c r="AH25" s="199"/>
+      <c r="AI25" s="199"/>
+      <c r="AJ25" s="199"/>
+      <c r="AK25" s="199"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7956,62 +8018,55 @@
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
     </row>
-    <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="164" t="s">
+      <c r="D26" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="207"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="165"/>
-      <c r="N26" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="175" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="176"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="173"/>
+      <c r="AJ26" s="173"/>
+      <c r="AK26" s="174"/>
     </row>
     <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -8255,22 +8310,61 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="G19:K21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="G11:K18"/>
+    <mergeCell ref="D11:F18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="Y12:AK12"/>
     <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:X14"/>
     <mergeCell ref="N13:X13"/>
-    <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="D8:F10"/>
+    <mergeCell ref="G8:K10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="Y10:AK10"/>
@@ -8286,64 +8380,25 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
     <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="Y15:AK15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G20:K22"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AK24"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F41C29-81CE-409D-B6C7-261AD1EECE27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7450457-ED35-49AB-BC48-4B33DFBA6ADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1683,9 +1683,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1803,104 +1911,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1911,41 +1929,14 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1953,86 +1944,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,14 +1956,101 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2950,12 +2950,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="85">
+      <c r="I25" s="88">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -3553,57 +3553,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="93" t="s">
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="121" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="157" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="122">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3611,53 +3611,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="93" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="99" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="135" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="122">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3665,45 +3665,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3740,1232 +3740,1076 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="92" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="126"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="108">
         <v>1</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="142">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110">
         <v>43630</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="145" t="s">
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148" t="s">
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="151" t="s">
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="148" t="s">
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="149"/>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="150"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="118"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="105">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127">
+      <c r="C9" s="106"/>
+      <c r="D9" s="91">
         <v>43804</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="130" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136" t="s">
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="139" t="s">
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="135"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="97"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="127">
+      <c r="C10" s="90"/>
+      <c r="D10" s="91">
         <v>43895</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="156" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133" t="s">
+      <c r="H10" s="94"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136" t="s">
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="133" t="s">
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="135"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="97"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74">
         <v>4</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="127">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91">
         <v>44796</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="156" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133" t="s">
+      <c r="H11" s="94"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136" t="s">
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="137"/>
-      <c r="AD11" s="137"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="133" t="s">
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AG11" s="134"/>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="135"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="97"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="137"/>
-      <c r="T12" s="137"/>
-      <c r="U12" s="137"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="135"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="97"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="138"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="135"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="97"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="138"/>
-      <c r="AF14" s="139"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="135"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="96"/>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="97"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="137"/>
-      <c r="T15" s="137"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="137"/>
-      <c r="AA15" s="137"/>
-      <c r="AB15" s="137"/>
-      <c r="AC15" s="137"/>
-      <c r="AD15" s="137"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="134"/>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="135"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="97"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="137"/>
-      <c r="T16" s="137"/>
-      <c r="U16" s="137"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="137"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
-      <c r="AC16" s="137"/>
-      <c r="AD16" s="137"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="134"/>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="135"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="97"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="137"/>
-      <c r="Y17" s="137"/>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="137"/>
-      <c r="AD17" s="137"/>
-      <c r="AE17" s="138"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="134"/>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="135"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="97"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="135"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="97"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="137"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="134"/>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="135"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="97"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="137"/>
-      <c r="AA20" s="137"/>
-      <c r="AB20" s="137"/>
-      <c r="AC20" s="137"/>
-      <c r="AD20" s="137"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="135"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="97"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="135"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="97"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="137"/>
-      <c r="AB22" s="137"/>
-      <c r="AC22" s="137"/>
-      <c r="AD22" s="137"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="134"/>
-      <c r="AI22" s="135"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="97"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="134"/>
-      <c r="AH23" s="134"/>
-      <c r="AI23" s="135"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="97"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="137"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="137"/>
-      <c r="Z24" s="137"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
-      <c r="AC24" s="137"/>
-      <c r="AD24" s="137"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="135"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="97"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="134"/>
-      <c r="AH25" s="134"/>
-      <c r="AI25" s="135"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="97"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="97"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="139"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="135"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="97"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="135"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="97"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="137"/>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="135"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="97"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="139"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="135"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="97"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="137"/>
-      <c r="V31" s="137"/>
-      <c r="W31" s="137"/>
-      <c r="X31" s="137"/>
-      <c r="Y31" s="137"/>
-      <c r="Z31" s="137"/>
-      <c r="AA31" s="137"/>
-      <c r="AB31" s="137"/>
-      <c r="AC31" s="137"/>
-      <c r="AD31" s="137"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="139"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="135"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="97"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="137"/>
-      <c r="W32" s="137"/>
-      <c r="X32" s="137"/>
-      <c r="Y32" s="137"/>
-      <c r="Z32" s="137"/>
-      <c r="AA32" s="137"/>
-      <c r="AB32" s="137"/>
-      <c r="AC32" s="137"/>
-      <c r="AD32" s="137"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="135"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="97"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="135"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="97"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -4989,6 +4833,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -5145,163 +5145,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="163" t="str">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="121" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="121" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="121" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6764,6 +6764,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6773,14 +6781,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -6809,166 +6809,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="178" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="164" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="93" t="s">
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="121" t="str">
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="158">
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="160"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="166"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="93" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="121" t="str">
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="158">
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AK2" s="159"/>
-      <c r="AL2" s="160"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="166"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="121" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="158" t="str">
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="160"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -7073,18 +7073,18 @@
       <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="187" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="77" t="s">
         <v>43</v>
       </c>
@@ -7122,514 +7122,514 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="190" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="175" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="177"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="168"/>
+      <c r="N8" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="133" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="174"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="171"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="175" t="s">
+      <c r="D9" s="186"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="177"/>
-      <c r="N9" s="175" t="s">
+      <c r="M9" s="168"/>
+      <c r="N9" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="133" t="s">
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="173"/>
-      <c r="AK9" s="174"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
         <f t="shared" ref="C10:C26" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="175" t="s">
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="175" t="s">
+      <c r="M10" s="168"/>
+      <c r="N10" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="176"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="133" t="s">
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="173"/>
-      <c r="AK10" s="174"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="170"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="171"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="196" t="s">
+      <c r="D11" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196" t="s">
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="176" t="s">
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="177"/>
-      <c r="N11" s="175" t="s">
+      <c r="M11" s="168"/>
+      <c r="N11" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="176"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="133" t="s">
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="174"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="170"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="170"/>
+      <c r="AD11" s="170"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="170"/>
+      <c r="AJ11" s="170"/>
+      <c r="AK11" s="171"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="74">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="176" t="s">
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="177"/>
-      <c r="N12" s="175" t="s">
+      <c r="M12" s="168"/>
+      <c r="N12" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="133" t="s">
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="173"/>
-      <c r="AK12" s="174"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="170"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="170"/>
+      <c r="AJ12" s="170"/>
+      <c r="AK12" s="171"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="176" t="s">
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="177"/>
-      <c r="N13" s="175" t="s">
+      <c r="M13" s="168"/>
+      <c r="N13" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="133" t="s">
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="174"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="170"/>
+      <c r="AJ13" s="170"/>
+      <c r="AK13" s="171"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="74">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="176" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="177"/>
-      <c r="N14" s="175" t="s">
+      <c r="M14" s="168"/>
+      <c r="N14" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="176"/>
-      <c r="U14" s="176"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="133" t="s">
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="Z14" s="173"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="173"/>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="173"/>
-      <c r="AK14" s="174"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="170"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="170"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="171"/>
     </row>
     <row r="15" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="74">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="176" t="s">
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="175" t="s">
+      <c r="M15" s="168"/>
+      <c r="N15" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="176"/>
-      <c r="U15" s="176"/>
-      <c r="V15" s="176"/>
-      <c r="W15" s="176"/>
-      <c r="X15" s="177"/>
-      <c r="Y15" s="133" t="s">
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="167"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="167"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="173"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="174"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="170"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="170"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="171"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="74">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="176" t="s">
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="177"/>
-      <c r="N16" s="175" t="s">
+      <c r="M16" s="168"/>
+      <c r="N16" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="176"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="176"/>
-      <c r="U16" s="176"/>
-      <c r="V16" s="176"/>
-      <c r="W16" s="176"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="133" t="s">
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="174"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="170"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="170"/>
+      <c r="AK16" s="171"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="74">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
-      <c r="L17" s="176" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="177"/>
-      <c r="N17" s="175" t="s">
+      <c r="M17" s="168"/>
+      <c r="N17" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="176"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="176"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="177"/>
-      <c r="Y17" s="133" t="s">
+      <c r="O17" s="167"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="167"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="167"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="167"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="174"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="170"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="170"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="170"/>
+      <c r="AJ17" s="170"/>
+      <c r="AK17" s="171"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="74">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="176" t="s">
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="177"/>
-      <c r="N18" s="175" t="s">
+      <c r="M18" s="168"/>
+      <c r="N18" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176"/>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="133" t="s">
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="167"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="173"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="174"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="170"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="170"/>
+      <c r="AJ18" s="170"/>
+      <c r="AK18" s="171"/>
     </row>
     <row r="19" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16"/>
@@ -7638,46 +7638,46 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="198" t="s">
+      <c r="D19" s="178"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="199"/>
-      <c r="N19" s="203" t="s">
+      <c r="M19" s="173"/>
+      <c r="N19" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="199"/>
-      <c r="W19" s="199"/>
-      <c r="X19" s="199"/>
-      <c r="Y19" s="203" t="s">
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="173"/>
+      <c r="S19" s="173"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="199"/>
-      <c r="AC19" s="199"/>
-      <c r="AD19" s="199"/>
-      <c r="AE19" s="199"/>
-      <c r="AF19" s="199"/>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="199"/>
-      <c r="AI19" s="199"/>
-      <c r="AJ19" s="199"/>
-      <c r="AK19" s="199"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="173"/>
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
       <c r="AN19" s="16"/>
@@ -7689,46 +7689,46 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="198" t="s">
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="199"/>
-      <c r="N20" s="203" t="s">
+      <c r="M20" s="173"/>
+      <c r="N20" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="199"/>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199"/>
-      <c r="R20" s="199"/>
-      <c r="S20" s="199"/>
-      <c r="T20" s="199"/>
-      <c r="U20" s="199"/>
-      <c r="V20" s="199"/>
-      <c r="W20" s="199"/>
-      <c r="X20" s="199"/>
-      <c r="Y20" s="203" t="s">
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="199"/>
-      <c r="AB20" s="199"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="199"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="199"/>
-      <c r="AG20" s="199"/>
-      <c r="AH20" s="199"/>
-      <c r="AI20" s="199"/>
-      <c r="AJ20" s="199"/>
-      <c r="AK20" s="199"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
@@ -7740,46 +7740,46 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="198" t="s">
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="199"/>
-      <c r="N21" s="203" t="s">
+      <c r="M21" s="173"/>
+      <c r="N21" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="O21" s="199"/>
-      <c r="P21" s="199"/>
-      <c r="Q21" s="199"/>
-      <c r="R21" s="199"/>
-      <c r="S21" s="199"/>
-      <c r="T21" s="199"/>
-      <c r="U21" s="199"/>
-      <c r="V21" s="199"/>
-      <c r="W21" s="199"/>
-      <c r="X21" s="199"/>
-      <c r="Y21" s="203" t="s">
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="Z21" s="199"/>
-      <c r="AA21" s="199"/>
-      <c r="AB21" s="199"/>
-      <c r="AC21" s="199"/>
-      <c r="AD21" s="199"/>
-      <c r="AE21" s="199"/>
-      <c r="AF21" s="199"/>
-      <c r="AG21" s="199"/>
-      <c r="AH21" s="199"/>
-      <c r="AI21" s="199"/>
-      <c r="AJ21" s="199"/>
-      <c r="AK21" s="199"/>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="173"/>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
@@ -7805,38 +7805,38 @@
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
       <c r="K22" s="84"/>
-      <c r="L22" s="198" t="s">
+      <c r="L22" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="199"/>
-      <c r="N22" s="203" t="s">
+      <c r="M22" s="173"/>
+      <c r="N22" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="199"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="199"/>
-      <c r="U22" s="199"/>
-      <c r="V22" s="199"/>
-      <c r="W22" s="199"/>
-      <c r="X22" s="199"/>
-      <c r="Y22" s="203" t="s">
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="Z22" s="199"/>
-      <c r="AA22" s="199"/>
-      <c r="AB22" s="199"/>
-      <c r="AC22" s="199"/>
-      <c r="AD22" s="199"/>
-      <c r="AE22" s="199"/>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="199"/>
-      <c r="AH22" s="199"/>
-      <c r="AI22" s="199"/>
-      <c r="AJ22" s="199"/>
-      <c r="AK22" s="199"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="173"/>
+      <c r="AJ22" s="173"/>
+      <c r="AK22" s="173"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7862,38 +7862,38 @@
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="198" t="s">
+      <c r="L23" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="199"/>
-      <c r="N23" s="203" t="s">
+      <c r="M23" s="173"/>
+      <c r="N23" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="199"/>
-      <c r="P23" s="199"/>
-      <c r="Q23" s="199"/>
-      <c r="R23" s="199"/>
-      <c r="S23" s="199"/>
-      <c r="T23" s="199"/>
-      <c r="U23" s="199"/>
-      <c r="V23" s="199"/>
-      <c r="W23" s="199"/>
-      <c r="X23" s="199"/>
-      <c r="Y23" s="203" t="s">
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="Z23" s="199"/>
-      <c r="AA23" s="199"/>
-      <c r="AB23" s="199"/>
-      <c r="AC23" s="199"/>
-      <c r="AD23" s="199"/>
-      <c r="AE23" s="199"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="199"/>
-      <c r="AH23" s="199"/>
-      <c r="AI23" s="199"/>
-      <c r="AJ23" s="199"/>
-      <c r="AK23" s="199"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7919,38 +7919,38 @@
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="198" t="s">
+      <c r="L24" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="199"/>
-      <c r="N24" s="203" t="s">
+      <c r="M24" s="173"/>
+      <c r="N24" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="199"/>
-      <c r="X24" s="199"/>
-      <c r="Y24" s="203" t="s">
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="199"/>
-      <c r="AC24" s="199"/>
-      <c r="AD24" s="199"/>
-      <c r="AE24" s="199"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="199"/>
-      <c r="AH24" s="199"/>
-      <c r="AI24" s="199"/>
-      <c r="AJ24" s="199"/>
-      <c r="AK24" s="199"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7968,46 +7968,46 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="198" t="s">
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="199"/>
-      <c r="N25" s="203" t="s">
+      <c r="M25" s="173"/>
+      <c r="N25" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="199"/>
-      <c r="X25" s="199"/>
-      <c r="Y25" s="203" t="s">
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="199"/>
-      <c r="AA25" s="199"/>
-      <c r="AB25" s="199"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="199"/>
-      <c r="AE25" s="199"/>
-      <c r="AF25" s="199"/>
-      <c r="AG25" s="199"/>
-      <c r="AH25" s="199"/>
-      <c r="AI25" s="199"/>
-      <c r="AJ25" s="199"/>
-      <c r="AK25" s="199"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -8023,50 +8023,50 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D26" s="209" t="s">
+      <c r="D26" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="207"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="209" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="207"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="176" t="s">
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="177"/>
-      <c r="N26" s="175" t="s">
+      <c r="M26" s="168"/>
+      <c r="N26" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="176"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="176"/>
-      <c r="T26" s="176"/>
-      <c r="U26" s="176"/>
-      <c r="V26" s="176"/>
-      <c r="W26" s="176"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="133" t="s">
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="167"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="173"/>
-      <c r="AK26" s="174"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="170"/>
+      <c r="AE26" s="170"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="170"/>
+      <c r="AJ26" s="170"/>
+      <c r="AK26" s="171"/>
     </row>
     <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -8310,34 +8310,46 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="Y24:AK24"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="G19:K21"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="D8:F10"/>
+    <mergeCell ref="G8:K10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:X17"/>
     <mergeCell ref="Y17:AK17"/>
@@ -8354,46 +8366,34 @@
     <mergeCell ref="Y14:AK14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="D8:F10"/>
-    <mergeCell ref="G8:K10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="N12:X12"/>
-    <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="G19:K21"/>
+    <mergeCell ref="N19:X19"/>
+    <mergeCell ref="N20:X20"/>
+    <mergeCell ref="N21:X21"/>
+    <mergeCell ref="Y19:AK19"/>
+    <mergeCell ref="Y20:AK20"/>
+    <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y22:AK22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="Y26:AK26"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="Y24:AK24"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A689-D081-4311-95D7-745311A49B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7450457-ED35-49AB-BC48-4B33DFBA6ADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>PJ名</t>
   </si>
@@ -382,16 +380,6 @@
   <si>
     <t>URL一覧</t>
     <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
   </si>
   <si>
     <t>/app/project/detail</t>
@@ -590,6 +578,47 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TOPメニューの分類を共通に見直し</t>
+    <rPh sb="8" eb="10">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
   </si>
 </sst>
 </file>
@@ -1454,7 +1483,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1654,6 +1683,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,6 +1928,21 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1912,21 +1965,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1949,9 +1987,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,8 +2146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2857,105 +2892,107 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="85">
+      <c r="I25" s="88">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-    </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44796</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -2965,7 +3002,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -2978,522 +3015,522 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3510,63 +3547,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="15"/>
+    <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="157" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="119">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="122">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="124"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3574,53 +3611,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="132" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="135" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="119">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="122">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="121"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3628,45 +3665,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="121"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="124"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3703,1058 +3740,1072 @@
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="125" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="126"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="108">
         <v>1</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110">
         <v>43630</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="E8" s="111"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116" t="s">
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="117"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="117"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="113" t="s">
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="115"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="118"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74">
         <v>2</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="105">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="88">
+      <c r="C9" s="106"/>
+      <c r="D9" s="91">
         <v>43804</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="100" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="92" t="s">
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="94"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="97"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74">
         <v>3</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
-        <v>43895</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="99" t="s">
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="97"/>
+    </row>
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74">
         <v>4</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="100" t="s">
+      <c r="B11" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="100" t="s">
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="94"/>
-    </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="94"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="97"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="94"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="97"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="94"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="97"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="94"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="96"/>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="97"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="94"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="97"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="94"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="97"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="94"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="97"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="94"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="97"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="94"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="97"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="94"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="97"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="94"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="97"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="94"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="99"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="97"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="94"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="97"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="97"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="94"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="97"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="94"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="97"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="94"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="97"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="96"/>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="94"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="97"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
-      <c r="AC29" s="96"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="94"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="96"/>
+      <c r="AI29" s="97"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="94"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="99"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="97"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
-      <c r="AC31" s="96"/>
-      <c r="AD31" s="96"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="94"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="98"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="99"/>
+      <c r="Z31" s="99"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="99"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="97"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="93"/>
-      <c r="AH32" s="93"/>
-      <c r="AI32" s="94"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="96"/>
+      <c r="AH32" s="96"/>
+      <c r="AI32" s="97"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
-      <c r="AC33" s="96"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="94"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="99"/>
+      <c r="Z33" s="99"/>
+      <c r="AA33" s="99"/>
+      <c r="AB33" s="99"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="99"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="97"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
@@ -4958,299 +5009,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="62" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="62" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="43"/>
-    <col min="257" max="290" width="4.875" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="43"/>
-    <col min="513" max="546" width="4.875" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="43"/>
-    <col min="769" max="802" width="4.875" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="43"/>
-    <col min="1025" max="1058" width="4.875" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="43"/>
-    <col min="1281" max="1314" width="4.875" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="43"/>
-    <col min="1537" max="1570" width="4.875" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="43"/>
-    <col min="1793" max="1826" width="4.875" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="43"/>
-    <col min="2049" max="2082" width="4.875" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="43"/>
-    <col min="2305" max="2338" width="4.875" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="43"/>
-    <col min="2561" max="2594" width="4.875" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="43"/>
-    <col min="2817" max="2850" width="4.875" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="43"/>
-    <col min="3073" max="3106" width="4.875" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="43"/>
-    <col min="3329" max="3362" width="4.875" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="43"/>
-    <col min="3585" max="3618" width="4.875" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="43"/>
-    <col min="3841" max="3874" width="4.875" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="43"/>
-    <col min="4097" max="4130" width="4.875" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="43"/>
-    <col min="4353" max="4386" width="4.875" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="43"/>
-    <col min="4609" max="4642" width="4.875" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="43"/>
-    <col min="4865" max="4898" width="4.875" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="43"/>
-    <col min="5121" max="5154" width="4.875" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="43"/>
-    <col min="5377" max="5410" width="4.875" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="43"/>
-    <col min="5633" max="5666" width="4.875" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="43"/>
-    <col min="5889" max="5922" width="4.875" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="43"/>
-    <col min="6145" max="6178" width="4.875" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="43"/>
-    <col min="6401" max="6434" width="4.875" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="43"/>
-    <col min="6657" max="6690" width="4.875" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="43"/>
-    <col min="6913" max="6946" width="4.875" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="43"/>
-    <col min="7169" max="7202" width="4.875" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="43"/>
-    <col min="7425" max="7458" width="4.875" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="43"/>
-    <col min="7681" max="7714" width="4.875" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="43"/>
-    <col min="7937" max="7970" width="4.875" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="43"/>
-    <col min="8193" max="8226" width="4.875" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="43"/>
-    <col min="8449" max="8482" width="4.875" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="43"/>
-    <col min="8705" max="8738" width="4.875" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="43"/>
-    <col min="8961" max="8994" width="4.875" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="43"/>
-    <col min="9217" max="9250" width="4.875" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="43"/>
-    <col min="9473" max="9506" width="4.875" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="43"/>
-    <col min="9729" max="9762" width="4.875" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="43"/>
-    <col min="9985" max="10018" width="4.875" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="43"/>
-    <col min="10241" max="10274" width="4.875" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="43"/>
-    <col min="10497" max="10530" width="4.875" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="43"/>
-    <col min="10753" max="10786" width="4.875" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="43"/>
-    <col min="11009" max="11042" width="4.875" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="43"/>
-    <col min="11265" max="11298" width="4.875" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="43"/>
-    <col min="11521" max="11554" width="4.875" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="43"/>
-    <col min="11777" max="11810" width="4.875" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="43"/>
-    <col min="12033" max="12066" width="4.875" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="43"/>
-    <col min="12289" max="12322" width="4.875" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="43"/>
-    <col min="12545" max="12578" width="4.875" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="43"/>
-    <col min="12801" max="12834" width="4.875" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="43"/>
-    <col min="13057" max="13090" width="4.875" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="43"/>
-    <col min="13313" max="13346" width="4.875" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="43"/>
-    <col min="13569" max="13602" width="4.875" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="43"/>
-    <col min="13825" max="13858" width="4.875" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="43"/>
-    <col min="14081" max="14114" width="4.875" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="43"/>
-    <col min="14337" max="14370" width="4.875" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="43"/>
-    <col min="14593" max="14626" width="4.875" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="43"/>
-    <col min="14849" max="14882" width="4.875" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="43"/>
-    <col min="15105" max="15138" width="4.875" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="43"/>
-    <col min="15361" max="15394" width="4.875" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="43"/>
-    <col min="15617" max="15650" width="4.875" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="43"/>
-    <col min="15873" max="15906" width="4.875" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="43"/>
-    <col min="16129" max="16162" width="4.875" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="62" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="62" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="43"/>
+    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="43"/>
+    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="43"/>
+    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="43"/>
+    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="43"/>
+    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="43"/>
+    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="43"/>
+    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="43"/>
+    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="43"/>
+    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="43"/>
+    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="43"/>
+    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="43"/>
+    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="43"/>
+    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="43"/>
+    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="43"/>
+    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="43"/>
+    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="43"/>
+    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="43"/>
+    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="43"/>
+    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="43"/>
+    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="43"/>
+    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="43"/>
+    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="43"/>
+    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="43"/>
+    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="43"/>
+    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="43"/>
+    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="43"/>
+    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="43"/>
+    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="43"/>
+    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="43"/>
+    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="43"/>
+    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="43"/>
+    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="43"/>
+    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="43"/>
+    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="43"/>
+    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="43"/>
+    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="43"/>
+    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="43"/>
+    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="43"/>
+    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="43"/>
+    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="43"/>
+    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="43"/>
+    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="43"/>
+    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="43"/>
+    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="43"/>
+    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="43"/>
+    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="43"/>
+    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="43"/>
+    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="43"/>
+    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="43"/>
+    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="43"/>
+    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="43"/>
+    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="43"/>
+    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="43"/>
+    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="43"/>
+    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="43"/>
+    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="43"/>
+    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="43"/>
+    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="43"/>
+    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="43"/>
+    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="43"/>
+    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="43"/>
+    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="43"/>
+    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="161">
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="161" t="str">
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -6295,7 +6346,7 @@
       <c r="AH31" s="50"/>
       <c r="AI31" s="51"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="54"/>
       <c r="C32" s="16"/>
@@ -6369,7 +6420,7 @@
       <c r="AH33" s="50"/>
       <c r="AI33" s="51"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="54"/>
       <c r="C34" s="16"/>
@@ -6750,174 +6801,174 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="45" width="4.875" style="17" customWidth="1"/>
-    <col min="46" max="46" width="23.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="4.875" style="17"/>
+    <col min="1" max="45" width="4.83203125" style="17" customWidth="1"/>
+    <col min="46" max="46" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="129" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="190" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="126" t="s">
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="154" t="str">
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="161">
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="163"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="166"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="126" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="154" t="str">
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="161">
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
-      </c>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="163"/>
+        <v>44796</v>
+      </c>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="166"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="154" t="str">
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="157" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="161" t="str">
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="159"/>
+      <c r="AJ3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="163"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -7022,18 +7073,18 @@
       <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="187" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="191"/>
       <c r="L7" s="77" t="s">
         <v>43</v>
       </c>
@@ -7071,534 +7122,536 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="180" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="175" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="174"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="168"/>
+      <c r="N8" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="100" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="176"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="177"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="170"/>
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="171"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <f>C8+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="175" t="s">
+      <c r="D9" s="186"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="174"/>
-      <c r="N9" s="175" t="s">
+      <c r="M9" s="168"/>
+      <c r="N9" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="100" t="s">
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="176"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="176"/>
-      <c r="AC9" s="176"/>
-      <c r="AD9" s="176"/>
-      <c r="AE9" s="176"/>
-      <c r="AF9" s="176"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="176"/>
-      <c r="AJ9" s="176"/>
-      <c r="AK9" s="177"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="170"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="170"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="170"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="170"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
-        <f t="shared" ref="C10:C16" si="0">C9+1</f>
+        <f t="shared" ref="C10:C26" si="0">C9+1</f>
         <v>3</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="175" t="s">
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175" t="s">
+      <c r="M10" s="168"/>
+      <c r="N10" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="100" t="s">
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="176"/>
-      <c r="AA10" s="176"/>
-      <c r="AB10" s="176"/>
-      <c r="AC10" s="176"/>
-      <c r="AD10" s="176"/>
-      <c r="AE10" s="176"/>
-      <c r="AF10" s="176"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="176"/>
-      <c r="AI10" s="176"/>
-      <c r="AJ10" s="176"/>
-      <c r="AK10" s="177"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="170"/>
+      <c r="AJ10" s="170"/>
+      <c r="AK10" s="171"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="175" t="s">
+      <c r="D11" s="181" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="174"/>
-      <c r="N11" s="175" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="176"/>
-      <c r="AA11" s="176"/>
-      <c r="AB11" s="176"/>
-      <c r="AC11" s="176"/>
-      <c r="AD11" s="176"/>
-      <c r="AE11" s="176"/>
-      <c r="AF11" s="176"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="176"/>
-      <c r="AI11" s="176"/>
-      <c r="AJ11" s="176"/>
-      <c r="AK11" s="177"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="170"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="170"/>
+      <c r="AD11" s="170"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="170"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="170"/>
+      <c r="AJ11" s="170"/>
+      <c r="AK11" s="171"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="81">
+      <c r="C12" s="74">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="174"/>
-      <c r="N12" s="175" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="173"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="176"/>
-      <c r="AA12" s="176"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="176"/>
-      <c r="AD12" s="176"/>
-      <c r="AE12" s="176"/>
-      <c r="AF12" s="176"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="176"/>
-      <c r="AJ12" s="176"/>
-      <c r="AK12" s="177"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="168"/>
+      <c r="N12" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="167"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="170"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="170"/>
+      <c r="AJ12" s="170"/>
+      <c r="AK12" s="171"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="81">
+      <c r="C13" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="173" t="s">
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="174"/>
-      <c r="N13" s="175" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="176"/>
-      <c r="AJ13" s="176"/>
-      <c r="AK13" s="177"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="169" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="170"/>
+      <c r="AJ13" s="170"/>
+      <c r="AK13" s="171"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="81">
+      <c r="C14" s="74">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="174"/>
-      <c r="N14" s="175" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="176"/>
-      <c r="AB14" s="176"/>
-      <c r="AC14" s="176"/>
-      <c r="AD14" s="176"/>
-      <c r="AE14" s="176"/>
-      <c r="AF14" s="176"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="176"/>
-      <c r="AJ14" s="176"/>
-      <c r="AK14" s="177"/>
-    </row>
-    <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="81">
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="168"/>
+      <c r="N14" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="170"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="170"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="170"/>
+      <c r="AJ14" s="170"/>
+      <c r="AK14" s="171"/>
+    </row>
+    <row r="15" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="74">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="173" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="174"/>
-      <c r="N15" s="175" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="177"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="168"/>
+      <c r="N15" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="167"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="167"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="170"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="170"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="171"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="81">
+      <c r="C16" s="74">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="174"/>
-      <c r="N16" s="175" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="174"/>
-      <c r="Y16" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z16" s="176"/>
-      <c r="AA16" s="176"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="176"/>
-      <c r="AD16" s="176"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="176"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="176"/>
-      <c r="AJ16" s="176"/>
-      <c r="AK16" s="177"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="168"/>
+      <c r="N16" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="170"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="170"/>
+      <c r="AK16" s="171"/>
     </row>
     <row r="17" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="81">
-        <f t="shared" ref="C17:C26" si="1">C16+1</f>
+      <c r="C17" s="74">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="173" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="100" t="s">
+      <c r="M17" s="168"/>
+      <c r="N17" s="169" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="167"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="167"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="167"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="167"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="Z17" s="176"/>
-      <c r="AA17" s="176"/>
-      <c r="AB17" s="176"/>
-      <c r="AC17" s="176"/>
-      <c r="AD17" s="176"/>
-      <c r="AE17" s="176"/>
-      <c r="AF17" s="176"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="176"/>
-      <c r="AJ17" s="176"/>
-      <c r="AK17" s="177"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="170"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="170"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="170"/>
+      <c r="AJ17" s="170"/>
+      <c r="AK17" s="171"/>
     </row>
     <row r="18" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="81">
-        <f t="shared" si="1"/>
+      <c r="C18" s="74">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="175" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="100" t="s">
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="168"/>
+      <c r="N18" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="167"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="Z18" s="176"/>
-      <c r="AA18" s="176"/>
-      <c r="AB18" s="176"/>
-      <c r="AC18" s="176"/>
-      <c r="AD18" s="176"/>
-      <c r="AE18" s="176"/>
-      <c r="AF18" s="176"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="176"/>
-      <c r="AJ18" s="176"/>
-      <c r="AK18" s="177"/>
-    </row>
-    <row r="19" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="81">
-        <f>C18+1</f>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="170"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="170"/>
+      <c r="AJ18" s="170"/>
+      <c r="AK18" s="171"/>
+    </row>
+    <row r="19" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="74">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D19" s="179"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="179"/>
       <c r="I19" s="179"/>
       <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="174"/>
-      <c r="N19" s="175" t="s">
-        <v>65</v>
+      <c r="K19" s="180"/>
+      <c r="L19" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="173"/>
+      <c r="N19" s="174" t="s">
+        <v>66</v>
       </c>
       <c r="O19" s="173"/>
       <c r="P19" s="173"/>
@@ -7609,172 +7662,181 @@
       <c r="U19" s="173"/>
       <c r="V19" s="173"/>
       <c r="W19" s="173"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19" s="176"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="176"/>
-      <c r="AC19" s="176"/>
-      <c r="AD19" s="176"/>
-      <c r="AE19" s="176"/>
-      <c r="AF19" s="176"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="176"/>
-      <c r="AK19" s="177"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="173"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
     </row>
     <row r="20" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="81">
-        <f t="shared" si="1"/>
+      <c r="C20" s="74">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166" t="s">
+      <c r="D20" s="178"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="172" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="173"/>
+      <c r="N20" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="166" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="174" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="173"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
       <c r="AN20" s="16"/>
     </row>
-    <row r="21" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="81">
-        <f t="shared" si="1"/>
+    <row r="21" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="74">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="164" t="s">
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="174" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z21" s="173"/>
+      <c r="AA21" s="173"/>
+      <c r="AB21" s="173"/>
+      <c r="AC21" s="173"/>
+      <c r="AD21" s="173"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="173"/>
+      <c r="AG21" s="173"/>
+      <c r="AH21" s="173"/>
+      <c r="AI21" s="173"/>
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
     </row>
     <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="81">
-        <f t="shared" si="1"/>
+      <c r="C22" s="74">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="166" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="173"/>
+      <c r="N22" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="173"/>
+      <c r="S22" s="173"/>
+      <c r="T22" s="173"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="173"/>
+      <c r="W22" s="173"/>
+      <c r="X22" s="173"/>
+      <c r="Y22" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
+      <c r="Z22" s="173"/>
+      <c r="AA22" s="173"/>
+      <c r="AB22" s="173"/>
+      <c r="AC22" s="173"/>
+      <c r="AD22" s="173"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="173"/>
+      <c r="AG22" s="173"/>
+      <c r="AH22" s="173"/>
+      <c r="AI22" s="173"/>
+      <c r="AJ22" s="173"/>
+      <c r="AK22" s="173"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -7788,8 +7850,8 @@
     <row r="23" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="81">
-        <f t="shared" si="1"/>
+      <c r="C23" s="74">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D23" s="82"/>
@@ -7800,38 +7862,38 @@
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
+      <c r="L23" s="172" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="173"/>
+      <c r="N23" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="174" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
@@ -7845,8 +7907,8 @@
     <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="81">
-        <f t="shared" si="1"/>
+      <c r="C24" s="74">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D24" s="82"/>
@@ -7857,38 +7919,38 @@
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="164" t="s">
+      <c r="L24" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="166" t="s">
+      <c r="M24" s="173"/>
+      <c r="N24" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15"/>
@@ -7902,50 +7964,50 @@
     <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="81">
-        <f t="shared" si="1"/>
+      <c r="C25" s="74">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="164" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166" t="s">
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="173"/>
+      <c r="N25" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
@@ -7956,62 +8018,55 @@
       <c r="AS25" s="15"/>
       <c r="AT25" s="15"/>
     </row>
-    <row r="26" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="164" t="s">
+      <c r="D26" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="165"/>
-      <c r="N26" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="167"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="170"/>
+      <c r="AE26" s="170"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="170"/>
+      <c r="AJ26" s="170"/>
+      <c r="AK26" s="171"/>
     </row>
     <row r="27" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -8255,20 +8310,17 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="Y14:AK14"/>
+    <mergeCell ref="Y13:AK13"/>
     <mergeCell ref="N8:X8"/>
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N11:X11"/>
-    <mergeCell ref="Y12:AK12"/>
+    <mergeCell ref="Y11:AK11"/>
     <mergeCell ref="Y8:AK8"/>
     <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y11:AK11"/>
+    <mergeCell ref="N11:X11"/>
     <mergeCell ref="N12:X12"/>
-    <mergeCell ref="N13:X13"/>
     <mergeCell ref="O1:T3"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -8286,56 +8338,59 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="N16:X16"/>
-    <mergeCell ref="D8:F11"/>
-    <mergeCell ref="G8:K11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="D8:F10"/>
+    <mergeCell ref="G8:K10"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="G11:K18"/>
+    <mergeCell ref="D11:F18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:X16"/>
+    <mergeCell ref="Y16:AK16"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:X18"/>
     <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="G12:K19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
+    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="Y12:AK12"/>
+    <mergeCell ref="Y14:AK14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:X14"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="Y16:AK16"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="Y15:AK15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D20:F22"/>
-    <mergeCell ref="G20:K22"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="G19:K21"/>
+    <mergeCell ref="N19:X19"/>
     <mergeCell ref="N20:X20"/>
     <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="Y19:AK19"/>
     <mergeCell ref="Y20:AK20"/>
     <mergeCell ref="Y21:AK21"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="Y25:AK25"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:X22"/>
     <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="Y23:AK23"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:X26"/>
     <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="Y23:AK23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:X24"/>
     <mergeCell ref="Y24:AK24"/>
@@ -8343,7 +8398,7 @@
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7450457-ED35-49AB-BC48-4B33DFBA6ADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987C6AA-341C-4676-AD78-648099349C12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,34 +205,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン：初期表示</t>
-    <rPh sb="5" eb="7">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン：ログイン処理</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログアウト：ログアウト処理</t>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>TOPメニュー：初期表示</t>
     <rPh sb="8" eb="10">
       <t>ショキ</t>
@@ -619,6 +591,37 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：初期表示</t>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：ログイン処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：ログアウト処理</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -2892,9 +2895,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2938,7 +2939,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3579,7 @@
       <c r="Q1" s="140"/>
       <c r="R1" s="141"/>
       <c r="S1" s="148" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="T1" s="149"/>
       <c r="U1" s="149"/>
@@ -3852,12 +3853,12 @@
       <c r="E9" s="92"/>
       <c r="F9" s="93"/>
       <c r="G9" s="107" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9" s="94"/>
       <c r="I9" s="90"/>
       <c r="J9" s="103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
@@ -3866,7 +3867,7 @@
       <c r="O9" s="96"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="104" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R9" s="99"/>
       <c r="S9" s="99"/>
@@ -3883,7 +3884,7 @@
       <c r="AD9" s="99"/>
       <c r="AE9" s="100"/>
       <c r="AF9" s="95" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AG9" s="96"/>
       <c r="AH9" s="96"/>
@@ -3894,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="91">
@@ -3908,7 +3909,7 @@
       <c r="H10" s="94"/>
       <c r="I10" s="90"/>
       <c r="J10" s="103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
@@ -3917,7 +3918,7 @@
       <c r="O10" s="96"/>
       <c r="P10" s="97"/>
       <c r="Q10" s="104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R10" s="99"/>
       <c r="S10" s="99"/>
@@ -3945,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="90"/>
       <c r="D11" s="91">
@@ -3959,7 +3960,7 @@
       <c r="H11" s="94"/>
       <c r="I11" s="90"/>
       <c r="J11" s="103" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K11" s="96"/>
       <c r="L11" s="96"/>
@@ -3968,7 +3969,7 @@
       <c r="O11" s="96"/>
       <c r="P11" s="97"/>
       <c r="Q11" s="104" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R11" s="99"/>
       <c r="S11" s="99"/>
@@ -5422,7 +5423,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="75" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -7021,7 +7022,7 @@
     <row r="5" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="75" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -7086,11 +7087,11 @@
       <c r="J7" s="190"/>
       <c r="K7" s="191"/>
       <c r="L7" s="77" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="78"/>
@@ -7128,18 +7129,18 @@
       <c r="E8" s="184"/>
       <c r="F8" s="185"/>
       <c r="G8" s="183" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H8" s="184"/>
       <c r="I8" s="184"/>
       <c r="J8" s="184"/>
       <c r="K8" s="185"/>
       <c r="L8" s="169" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M8" s="168"/>
       <c r="N8" s="169" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O8" s="167"/>
       <c r="P8" s="167"/>
@@ -7152,7 +7153,7 @@
       <c r="W8" s="167"/>
       <c r="X8" s="168"/>
       <c r="Y8" s="103" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="170"/>
       <c r="AA8" s="170"/>
@@ -7181,11 +7182,11 @@
       <c r="J9" s="187"/>
       <c r="K9" s="188"/>
       <c r="L9" s="169" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M9" s="168"/>
       <c r="N9" s="169" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O9" s="167"/>
       <c r="P9" s="167"/>
@@ -7198,7 +7199,7 @@
       <c r="W9" s="167"/>
       <c r="X9" s="168"/>
       <c r="Y9" s="103" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="170"/>
       <c r="AA9" s="170"/>
@@ -7227,11 +7228,11 @@
       <c r="J10" s="187"/>
       <c r="K10" s="188"/>
       <c r="L10" s="169" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M10" s="168"/>
       <c r="N10" s="169" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O10" s="167"/>
       <c r="P10" s="167"/>
@@ -7244,7 +7245,7 @@
       <c r="W10" s="167"/>
       <c r="X10" s="168"/>
       <c r="Y10" s="103" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="Z10" s="170"/>
       <c r="AA10" s="170"/>
@@ -7265,23 +7266,23 @@
         <v>4</v>
       </c>
       <c r="D11" s="181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="181"/>
       <c r="F11" s="181"/>
       <c r="G11" s="181" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H11" s="181"/>
       <c r="I11" s="181"/>
       <c r="J11" s="181"/>
       <c r="K11" s="181"/>
       <c r="L11" s="167" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M11" s="168"/>
       <c r="N11" s="169" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O11" s="167"/>
       <c r="P11" s="167"/>
@@ -7294,7 +7295,7 @@
       <c r="W11" s="167"/>
       <c r="X11" s="168"/>
       <c r="Y11" s="103" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z11" s="170"/>
       <c r="AA11" s="170"/>
@@ -7323,11 +7324,11 @@
       <c r="J12" s="181"/>
       <c r="K12" s="181"/>
       <c r="L12" s="167" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M12" s="168"/>
       <c r="N12" s="169" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O12" s="167"/>
       <c r="P12" s="167"/>
@@ -7340,7 +7341,7 @@
       <c r="W12" s="167"/>
       <c r="X12" s="168"/>
       <c r="Y12" s="103" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="170"/>
       <c r="AA12" s="170"/>
@@ -7369,11 +7370,11 @@
       <c r="J13" s="181"/>
       <c r="K13" s="181"/>
       <c r="L13" s="167" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M13" s="168"/>
       <c r="N13" s="169" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O13" s="167"/>
       <c r="P13" s="167"/>
@@ -7386,7 +7387,7 @@
       <c r="W13" s="167"/>
       <c r="X13" s="168"/>
       <c r="Y13" s="103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="170"/>
       <c r="AA13" s="170"/>
@@ -7415,11 +7416,11 @@
       <c r="J14" s="181"/>
       <c r="K14" s="181"/>
       <c r="L14" s="167" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M14" s="168"/>
       <c r="N14" s="169" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O14" s="167"/>
       <c r="P14" s="167"/>
@@ -7432,7 +7433,7 @@
       <c r="W14" s="167"/>
       <c r="X14" s="168"/>
       <c r="Y14" s="103" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="170"/>
       <c r="AA14" s="170"/>
@@ -7461,11 +7462,11 @@
       <c r="J15" s="181"/>
       <c r="K15" s="181"/>
       <c r="L15" s="167" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M15" s="168"/>
       <c r="N15" s="169" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O15" s="167"/>
       <c r="P15" s="167"/>
@@ -7478,7 +7479,7 @@
       <c r="W15" s="167"/>
       <c r="X15" s="168"/>
       <c r="Y15" s="103" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="170"/>
       <c r="AA15" s="170"/>
@@ -7507,11 +7508,11 @@
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
       <c r="L16" s="167" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M16" s="168"/>
       <c r="N16" s="169" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O16" s="167"/>
       <c r="P16" s="167"/>
@@ -7524,7 +7525,7 @@
       <c r="W16" s="167"/>
       <c r="X16" s="168"/>
       <c r="Y16" s="103" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z16" s="170"/>
       <c r="AA16" s="170"/>
@@ -7553,11 +7554,11 @@
       <c r="J17" s="181"/>
       <c r="K17" s="181"/>
       <c r="L17" s="167" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M17" s="168"/>
       <c r="N17" s="169" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O17" s="167"/>
       <c r="P17" s="167"/>
@@ -7570,7 +7571,7 @@
       <c r="W17" s="167"/>
       <c r="X17" s="168"/>
       <c r="Y17" s="103" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="170"/>
       <c r="AA17" s="170"/>
@@ -7599,11 +7600,11 @@
       <c r="J18" s="182"/>
       <c r="K18" s="182"/>
       <c r="L18" s="167" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M18" s="168"/>
       <c r="N18" s="169" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O18" s="167"/>
       <c r="P18" s="167"/>
@@ -7616,7 +7617,7 @@
       <c r="W18" s="167"/>
       <c r="X18" s="168"/>
       <c r="Y18" s="103" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Z18" s="170"/>
       <c r="AA18" s="170"/>
@@ -7647,11 +7648,11 @@
       <c r="J19" s="179"/>
       <c r="K19" s="180"/>
       <c r="L19" s="172" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M19" s="173"/>
       <c r="N19" s="174" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O19" s="173"/>
       <c r="P19" s="173"/>
@@ -7664,7 +7665,7 @@
       <c r="W19" s="173"/>
       <c r="X19" s="173"/>
       <c r="Y19" s="174" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z19" s="173"/>
       <c r="AA19" s="173"/>
@@ -7698,11 +7699,11 @@
       <c r="J20" s="179"/>
       <c r="K20" s="180"/>
       <c r="L20" s="172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M20" s="173"/>
       <c r="N20" s="174" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O20" s="173"/>
       <c r="P20" s="173"/>
@@ -7715,7 +7716,7 @@
       <c r="W20" s="173"/>
       <c r="X20" s="173"/>
       <c r="Y20" s="174" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z20" s="173"/>
       <c r="AA20" s="173"/>
@@ -7749,11 +7750,11 @@
       <c r="J21" s="179"/>
       <c r="K21" s="180"/>
       <c r="L21" s="172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M21" s="173"/>
       <c r="N21" s="174" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O21" s="173"/>
       <c r="P21" s="173"/>
@@ -7766,7 +7767,7 @@
       <c r="W21" s="173"/>
       <c r="X21" s="173"/>
       <c r="Y21" s="174" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z21" s="173"/>
       <c r="AA21" s="173"/>
@@ -7806,11 +7807,11 @@
       <c r="J22" s="83"/>
       <c r="K22" s="84"/>
       <c r="L22" s="172" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M22" s="173"/>
       <c r="N22" s="174" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O22" s="173"/>
       <c r="P22" s="173"/>
@@ -7823,7 +7824,7 @@
       <c r="W22" s="173"/>
       <c r="X22" s="173"/>
       <c r="Y22" s="174" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z22" s="173"/>
       <c r="AA22" s="173"/>
@@ -7863,11 +7864,11 @@
       <c r="J23" s="83"/>
       <c r="K23" s="84"/>
       <c r="L23" s="172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M23" s="173"/>
       <c r="N23" s="174" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O23" s="173"/>
       <c r="P23" s="173"/>
@@ -7880,7 +7881,7 @@
       <c r="W23" s="173"/>
       <c r="X23" s="173"/>
       <c r="Y23" s="174" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z23" s="173"/>
       <c r="AA23" s="173"/>
@@ -7920,11 +7921,11 @@
       <c r="J24" s="83"/>
       <c r="K24" s="84"/>
       <c r="L24" s="172" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M24" s="173"/>
       <c r="N24" s="174" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="173"/>
       <c r="P24" s="173"/>
@@ -7937,7 +7938,7 @@
       <c r="W24" s="173"/>
       <c r="X24" s="173"/>
       <c r="Y24" s="174" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z24" s="173"/>
       <c r="AA24" s="173"/>
@@ -7977,11 +7978,11 @@
       <c r="J25" s="176"/>
       <c r="K25" s="177"/>
       <c r="L25" s="172" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M25" s="173"/>
       <c r="N25" s="174" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O25" s="173"/>
       <c r="P25" s="173"/>
@@ -7994,7 +7995,7 @@
       <c r="W25" s="173"/>
       <c r="X25" s="173"/>
       <c r="Y25" s="174" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="173"/>
       <c r="AA25" s="173"/>
@@ -8024,23 +8025,23 @@
         <v>19</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E26" s="85"/>
       <c r="F26" s="86"/>
       <c r="G26" s="87" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="86"/>
       <c r="L26" s="167" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M26" s="168"/>
       <c r="N26" s="169" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O26" s="167"/>
       <c r="P26" s="167"/>
@@ -8053,7 +8054,7 @@
       <c r="W26" s="167"/>
       <c r="X26" s="168"/>
       <c r="Y26" s="103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Z26" s="170"/>
       <c r="AA26" s="170"/>
@@ -8310,7 +8311,26 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="N15:X15"/>
     <mergeCell ref="U1:AC3"/>
     <mergeCell ref="Y13:AK13"/>
     <mergeCell ref="N8:X8"/>
@@ -8322,25 +8342,6 @@
     <mergeCell ref="N11:X11"/>
     <mergeCell ref="N12:X12"/>
     <mergeCell ref="O1:T3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="N15:X15"/>
     <mergeCell ref="D8:F10"/>
     <mergeCell ref="G8:K10"/>
     <mergeCell ref="L12:M12"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A689-D081-4311-95D7-745311A49B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987C6AA-341C-4676-AD78-648099349C12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>PJ名</t>
   </si>
@@ -204,34 +202,6 @@
   </si>
   <si>
     <t>A101</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン：初期表示</t>
-    <rPh sb="5" eb="7">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログイン：ログイン処理</t>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログアウト：ログアウト処理</t>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -382,16 +352,6 @@
   <si>
     <t>URL一覧</t>
     <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="37"/>
   </si>
   <si>
     <t>/app/project/detail</t>
@@ -588,6 +548,78 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>A103</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TOPメニューの分類を共通に見直し</t>
+    <rPh sb="8" eb="10">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="37"/>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：初期表示</t>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：ログイン処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>認証：ログアウト処理</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1454,7 +1486,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1654,6 +1686,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,6 +1931,21 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1912,21 +1968,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1949,9 +1990,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2111,8 +2149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8953500" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="8382000" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -2859,103 +2897,103 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="85">
+      <c r="I25" s="88">
         <f>IF(変更履歴!D8="","",MAX(変更履歴!D8:'変更履歴'!F33))</f>
-        <v>43895</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-    </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44796</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+    </row>
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -2965,7 +3003,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -2978,522 +3016,522 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14